--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-chars-top-by-haul.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-chars-top-by-haul.xlsx
@@ -59,7 +59,7 @@
     <t>Сима44</t>
   </si>
   <si>
-    <t>363 ч. 7 мин. 28 сек.</t>
+    <t>363 ч. 07 мин. 28 сек.</t>
   </si>
   <si>
     <t>3</t>
@@ -68,7 +68,7 @@
     <t>ролд</t>
   </si>
   <si>
-    <t>317 ч. 55 мин. 2 сек.</t>
+    <t>317 ч. 55 мин. 02 сек.</t>
   </si>
   <si>
     <t>4</t>
@@ -95,7 +95,7 @@
     <t>КлавоЕд</t>
   </si>
   <si>
-    <t>207 ч. 7 мин. 16 сек.</t>
+    <t>207 ч. 07 мин. 16 сек.</t>
   </si>
   <si>
     <t>7</t>
@@ -122,7 +122,7 @@
     <t>albert-</t>
   </si>
   <si>
-    <t>169 ч. 2 мин. 57 сек.</t>
+    <t>169 ч. 02 мин. 57 сек.</t>
   </si>
   <si>
     <t>10</t>
@@ -131,7 +131,7 @@
     <t>sakh10</t>
   </si>
   <si>
-    <t>147 ч. 8 мин. 19 сек.</t>
+    <t>147 ч. 08 мин. 19 сек.</t>
   </si>
   <si>
     <t>11</t>
@@ -149,7 +149,7 @@
     <t>Примус_починяю</t>
   </si>
   <si>
-    <t>103 ч. 1 мин. 5 сек.</t>
+    <t>103 ч. 01 мин. 05 сек.</t>
   </si>
   <si>
     <t>13</t>
@@ -203,7 +203,7 @@
     <t>Аферист</t>
   </si>
   <si>
-    <t>80 ч. 53 мин. 1 сек.</t>
+    <t>80 ч. 53 мин. 01 сек.</t>
   </si>
   <si>
     <t>19</t>
@@ -212,7 +212,7 @@
     <t>Анна_Банановна</t>
   </si>
   <si>
-    <t>79 ч. 6 мин. 53 сек.</t>
+    <t>79 ч. 06 мин. 53 сек.</t>
   </si>
   <si>
     <t>20</t>
@@ -221,7 +221,7 @@
     <t>Maksuta</t>
   </si>
   <si>
-    <t>79 ч. 5 мин. 10 сек.</t>
+    <t>79 ч. 05 мин. 10 сек.</t>
   </si>
   <si>
     <t>21</t>
@@ -230,7 +230,7 @@
     <t>ИльдарВолжский</t>
   </si>
   <si>
-    <t>78 ч. 27 мин. 4 сек.</t>
+    <t>78 ч. 27 мин. 04 сек.</t>
   </si>
   <si>
     <t>22</t>
@@ -284,7 +284,7 @@
     <t>tarak</t>
   </si>
   <si>
-    <t>69 ч. 13 мин. 6 сек.</t>
+    <t>69 ч. 13 мин. 06 сек.</t>
   </si>
   <si>
     <t>28</t>
@@ -338,7 +338,7 @@
     <t>отлезь_вова</t>
   </si>
   <si>
-    <t>61 ч. 45 мин. 3 сек.</t>
+    <t>61 ч. 45 мин. 03 сек.</t>
   </si>
   <si>
     <t>34</t>
@@ -365,7 +365,7 @@
     <t>Катушка</t>
   </si>
   <si>
-    <t>60 ч. 29 мин. 2 сек.</t>
+    <t>60 ч. 29 мин. 02 сек.</t>
   </si>
   <si>
     <t>37</t>
@@ -374,7 +374,7 @@
     <t>8ele8</t>
   </si>
   <si>
-    <t>60 ч. 0 мин. 4 сек.</t>
+    <t>60 ч. 00 мин. 04 сек.</t>
   </si>
   <si>
     <t>38</t>
@@ -410,7 +410,7 @@
     <t>nosferatum</t>
   </si>
   <si>
-    <t>55 ч. 1 мин. 23 сек.</t>
+    <t>55 ч. 01 мин. 23 сек.</t>
   </si>
   <si>
     <t>42</t>
@@ -428,7 +428,7 @@
     <t>Чумаходка</t>
   </si>
   <si>
-    <t>54 ч. 1 мин. 58 сек.</t>
+    <t>54 ч. 01 мин. 58 сек.</t>
   </si>
   <si>
     <t>44</t>
@@ -473,7 +473,7 @@
     <t>Gorynych</t>
   </si>
   <si>
-    <t>50 ч. 5 мин. 28 сек.</t>
+    <t>50 ч. 05 мин. 28 сек.</t>
   </si>
   <si>
     <t>49</t>
@@ -509,7 +509,7 @@
     <t>Велимира</t>
   </si>
   <si>
-    <t>49 ч. 0 мин. 29 сек.</t>
+    <t>49 ч. 00 мин. 29 сек.</t>
   </si>
   <si>
     <t>53</t>
@@ -527,7 +527,7 @@
     <t>---SUSanin---</t>
   </si>
   <si>
-    <t>48 ч. 27 мин. 0 сек.</t>
+    <t>48 ч. 27 мин. 00 сек.</t>
   </si>
   <si>
     <t>55</t>
@@ -545,7 +545,7 @@
     <t>Static</t>
   </si>
   <si>
-    <t>47 ч. 11 мин. 5 сек.</t>
+    <t>47 ч. 11 мин. 05 сек.</t>
   </si>
   <si>
     <t>57</t>
@@ -581,7 +581,7 @@
     <t>kosmos</t>
   </si>
   <si>
-    <t>45 ч. 4 мин. 3 сек.</t>
+    <t>45 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>61</t>
@@ -608,7 +608,7 @@
     <t>InsydeR</t>
   </si>
   <si>
-    <t>43 ч. 48 мин. 0 сек.</t>
+    <t>43 ч. 48 мин. 00 сек.</t>
   </si>
   <si>
     <t>64</t>
@@ -626,7 +626,7 @@
     <t>EclipseJDK</t>
   </si>
   <si>
-    <t>43 ч. 30 мин. 2 сек.</t>
+    <t>43 ч. 30 мин. 02 сек.</t>
   </si>
   <si>
     <t>66</t>
@@ -635,7 +635,7 @@
     <t>chat</t>
   </si>
   <si>
-    <t>41 ч. 41 мин. 9 сек.</t>
+    <t>41 ч. 41 мин. 09 сек.</t>
   </si>
   <si>
     <t>67</t>
@@ -662,7 +662,7 @@
     <t>a_mikhaylov</t>
   </si>
   <si>
-    <t>40 ч. 11 мин. 0 сек.</t>
+    <t>40 ч. 11 мин. 00 сек.</t>
   </si>
   <si>
     <t>70</t>
@@ -680,7 +680,7 @@
     <t>velsher123</t>
   </si>
   <si>
-    <t>39 ч. 22 мин. 7 сек.</t>
+    <t>39 ч. 22 мин. 07 сек.</t>
   </si>
   <si>
     <t>72</t>
@@ -716,7 +716,7 @@
     <t>prostoe</t>
   </si>
   <si>
-    <t>36 ч. 24 мин. 7 сек.</t>
+    <t>36 ч. 24 мин. 07 сек.</t>
   </si>
   <si>
     <t>76</t>
@@ -725,7 +725,7 @@
     <t>yurk</t>
   </si>
   <si>
-    <t>36 ч. 6 мин. 16 сек.</t>
+    <t>36 ч. 06 мин. 16 сек.</t>
   </si>
   <si>
     <t>77</t>
@@ -761,7 +761,7 @@
     <t>ТРЕКК</t>
   </si>
   <si>
-    <t>33 ч. 42 мин. 3 сек.</t>
+    <t>33 ч. 42 мин. 03 сек.</t>
   </si>
   <si>
     <t>81</t>
@@ -779,7 +779,7 @@
     <t>alanen</t>
   </si>
   <si>
-    <t>33 ч. 6 мин. 47 сек.</t>
+    <t>33 ч. 06 мин. 47 сек.</t>
   </si>
   <si>
     <t>83</t>
@@ -788,7 +788,7 @@
     <t>Графит</t>
   </si>
   <si>
-    <t>33 ч. 1 мин. 1 сек.</t>
+    <t>33 ч. 01 мин. 01 сек.</t>
   </si>
   <si>
     <t>84</t>
@@ -797,7 +797,7 @@
     <t>Viktor_Animal</t>
   </si>
   <si>
-    <t>32 ч. 56 мин. 1 сек.</t>
+    <t>32 ч. 56 мин. 01 сек.</t>
   </si>
   <si>
     <t>85</t>
@@ -824,7 +824,7 @@
     <t>svetophor</t>
   </si>
   <si>
-    <t>32 ч. 21 мин. 2 сек.</t>
+    <t>32 ч. 21 мин. 02 сек.</t>
   </si>
   <si>
     <t>88</t>
@@ -833,7 +833,7 @@
     <t>f0rtuna</t>
   </si>
   <si>
-    <t>32 ч. 8 мин. 47 сек.</t>
+    <t>32 ч. 08 мин. 47 сек.</t>
   </si>
   <si>
     <t>89</t>
@@ -869,7 +869,7 @@
     <t>carmero</t>
   </si>
   <si>
-    <t>31 ч. 26 мин. 8 сек.</t>
+    <t>31 ч. 26 мин. 08 сек.</t>
   </si>
   <si>
     <t>93</t>
@@ -878,7 +878,7 @@
     <t>Никсон</t>
   </si>
   <si>
-    <t>31 ч. 4 мин. 11 сек.</t>
+    <t>31 ч. 04 мин. 11 сек.</t>
   </si>
   <si>
     <t>94</t>
@@ -896,7 +896,7 @@
     <t>DenL</t>
   </si>
   <si>
-    <t>30 ч. 52 мин. 0 сек.</t>
+    <t>30 ч. 52 мин. 00 сек.</t>
   </si>
   <si>
     <t>96</t>
@@ -995,7 +995,7 @@
     <t>Руна</t>
   </si>
   <si>
-    <t>29 ч. 23 мин. 7 сек.</t>
+    <t>29 ч. 23 мин. 07 сек.</t>
   </si>
   <si>
     <t>107</t>
@@ -1031,7 +1031,7 @@
     <t>лаоцзы</t>
   </si>
   <si>
-    <t>28 ч. 32 мин. 6 сек.</t>
+    <t>28 ч. 32 мин. 06 сек.</t>
   </si>
   <si>
     <t>111</t>
@@ -1040,7 +1040,7 @@
     <t>Кот_Черныш</t>
   </si>
   <si>
-    <t>28 ч. 16 мин. 8 сек.</t>
+    <t>28 ч. 16 мин. 08 сек.</t>
   </si>
   <si>
     <t>112</t>
@@ -1049,7 +1049,7 @@
     <t>Dim37</t>
   </si>
   <si>
-    <t>28 ч. 7 мин. 39 сек.</t>
+    <t>28 ч. 07 мин. 39 сек.</t>
   </si>
   <si>
     <t>113</t>
@@ -1058,7 +1058,7 @@
     <t>LightStorm</t>
   </si>
   <si>
-    <t>28 ч. 5 мин. 19 сек.</t>
+    <t>28 ч. 05 мин. 19 сек.</t>
   </si>
   <si>
     <t>114</t>
@@ -1067,7 +1067,7 @@
     <t>AvtandiLine</t>
   </si>
   <si>
-    <t>27 ч. 56 мин. 1 сек.</t>
+    <t>27 ч. 56 мин. 01 сек.</t>
   </si>
   <si>
     <t>115</t>
@@ -1085,7 +1085,7 @@
     <t>Алина_</t>
   </si>
   <si>
-    <t>27 ч. 48 мин. 3 сек.</t>
+    <t>27 ч. 48 мин. 03 сек.</t>
   </si>
   <si>
     <t>117</t>
@@ -1103,7 +1103,7 @@
     <t>dmitriy156</t>
   </si>
   <si>
-    <t>26 ч. 58 мин. 9 сек.</t>
+    <t>26 ч. 58 мин. 09 сек.</t>
   </si>
   <si>
     <t>119</t>
@@ -1112,7 +1112,7 @@
     <t>РуссоТуристо</t>
   </si>
   <si>
-    <t>26 ч. 54 мин. 1 сек.</t>
+    <t>26 ч. 54 мин. 01 сек.</t>
   </si>
   <si>
     <t>120</t>
@@ -1121,7 +1121,7 @@
     <t>Nick950</t>
   </si>
   <si>
-    <t>26 ч. 48 мин. 2 сек.</t>
+    <t>26 ч. 48 мин. 02 сек.</t>
   </si>
   <si>
     <t>121</t>
@@ -1139,7 +1139,7 @@
     <t>шамик</t>
   </si>
   <si>
-    <t>26 ч. 30 мин. 9 сек.</t>
+    <t>26 ч. 30 мин. 09 сек.</t>
   </si>
   <si>
     <t>123</t>
@@ -1175,7 +1175,7 @@
     <t>citello</t>
   </si>
   <si>
-    <t>25 ч. 23 мин. 1 сек.</t>
+    <t>25 ч. 23 мин. 01 сек.</t>
   </si>
   <si>
     <t>127</t>
@@ -1184,7 +1184,7 @@
     <t>ancv2000</t>
   </si>
   <si>
-    <t>25 ч. 8 мин. 38 сек.</t>
+    <t>25 ч. 08 мин. 38 сек.</t>
   </si>
   <si>
     <t>128</t>
@@ -1229,7 +1229,7 @@
     <t>Азиат</t>
   </si>
   <si>
-    <t>24 ч. 21 мин. 5 сек.</t>
+    <t>24 ч. 21 мин. 05 сек.</t>
   </si>
   <si>
     <t>133</t>
@@ -1238,7 +1238,7 @@
     <t>Fostal</t>
   </si>
   <si>
-    <t>24 ч. 21 мин. 3 сек.</t>
+    <t>24 ч. 21 мин. 03 сек.</t>
   </si>
   <si>
     <t>134</t>
@@ -1247,7 +1247,7 @@
     <t>Игорка</t>
   </si>
   <si>
-    <t>24 ч. 16 мин. 4 сек.</t>
+    <t>24 ч. 16 мин. 04 сек.</t>
   </si>
   <si>
     <t>135</t>
@@ -1292,7 +1292,7 @@
     <t>Pisaka</t>
   </si>
   <si>
-    <t>23 ч. 20 мин. 6 сек.</t>
+    <t>23 ч. 20 мин. 06 сек.</t>
   </si>
   <si>
     <t>140</t>
@@ -1310,7 +1310,7 @@
     <t>оно</t>
   </si>
   <si>
-    <t>23 ч. 5 мин. 18 сек.</t>
+    <t>23 ч. 05 мин. 18 сек.</t>
   </si>
   <si>
     <t>142</t>
@@ -1319,7 +1319,7 @@
     <t>DietrichDeurt</t>
   </si>
   <si>
-    <t>23 ч. 2 мин. 1 сек.</t>
+    <t>23 ч. 02 мин. 01 сек.</t>
   </si>
   <si>
     <t>143</t>
@@ -1418,7 +1418,7 @@
     <t>Gosxo_Ruza</t>
   </si>
   <si>
-    <t>22 ч. 8 мин. 3 сек.</t>
+    <t>22 ч. 08 мин. 03 сек.</t>
   </si>
   <si>
     <t>154</t>
@@ -1454,7 +1454,7 @@
     <t>_sorriso_</t>
   </si>
   <si>
-    <t>21 ч. 26 мин. 2 сек.</t>
+    <t>21 ч. 26 мин. 02 сек.</t>
   </si>
   <si>
     <t>158</t>
@@ -1481,7 +1481,7 @@
     <t>Easy88</t>
   </si>
   <si>
-    <t>21 ч. 9 мин. 52 сек.</t>
+    <t>21 ч. 09 мин. 52 сек.</t>
   </si>
   <si>
     <t>161</t>
@@ -1490,7 +1490,7 @@
     <t>Pipl</t>
   </si>
   <si>
-    <t>21 ч. 9 мин. 23 сек.</t>
+    <t>21 ч. 09 мин. 23 сек.</t>
   </si>
   <si>
     <t>162</t>
@@ -1499,7 +1499,7 @@
     <t>VanDyk</t>
   </si>
   <si>
-    <t>21 ч. 9 мин. 2 сек.</t>
+    <t>21 ч. 09 мин. 02 сек.</t>
   </si>
   <si>
     <t>163</t>
@@ -1508,7 +1508,7 @@
     <t>наждак</t>
   </si>
   <si>
-    <t>21 ч. 3 мин. 23 сек.</t>
+    <t>21 ч. 03 мин. 23 сек.</t>
   </si>
   <si>
     <t>164</t>
@@ -1580,7 +1580,7 @@
     <t>Dany</t>
   </si>
   <si>
-    <t>20 ч. 11 мин. 9 сек.</t>
+    <t>20 ч. 11 мин. 09 сек.</t>
   </si>
   <si>
     <t>172</t>
@@ -1598,7 +1598,7 @@
     <t>Klume</t>
   </si>
   <si>
-    <t>20 ч. 9 мин. 44 сек.</t>
+    <t>20 ч. 09 мин. 44 сек.</t>
   </si>
   <si>
     <t>174</t>
@@ -1607,7 +1607,7 @@
     <t>Mask2017</t>
   </si>
   <si>
-    <t>20 ч. 9 мин. 15 сек.</t>
+    <t>20 ч. 09 мин. 15 сек.</t>
   </si>
   <si>
     <t>175</t>
@@ -1616,7 +1616,7 @@
     <t>Davydoff</t>
   </si>
   <si>
-    <t>20 ч. 8 мин. 8 сек.</t>
+    <t>20 ч. 08 мин. 08 сек.</t>
   </si>
   <si>
     <t>176</t>
@@ -1625,7 +1625,7 @@
     <t>WWW</t>
   </si>
   <si>
-    <t>20 ч. 5 мин. 32 сек.</t>
+    <t>20 ч. 05 мин. 32 сек.</t>
   </si>
   <si>
     <t>177</t>
@@ -1634,7 +1634,7 @@
     <t>wizmon</t>
   </si>
   <si>
-    <t>20 ч. 4 мин. 9 сек.</t>
+    <t>20 ч. 04 мин. 09 сек.</t>
   </si>
   <si>
     <t>178</t>
@@ -1724,7 +1724,7 @@
     <t>igormsu</t>
   </si>
   <si>
-    <t>18 ч. 49 мин. 2 сек.</t>
+    <t>18 ч. 49 мин. 02 сек.</t>
   </si>
   <si>
     <t>188</t>
@@ -1769,7 +1769,7 @@
     <t>ТрупОдиночка</t>
   </si>
   <si>
-    <t>18 ч. 8 мин. 17 сек.</t>
+    <t>18 ч. 08 мин. 17 сек.</t>
   </si>
   <si>
     <t>193</t>
@@ -1778,7 +1778,7 @@
     <t>AlViNic</t>
   </si>
   <si>
-    <t>18 ч. 6 мин. 56 сек.</t>
+    <t>18 ч. 06 мин. 56 сек.</t>
   </si>
   <si>
     <t>194</t>
@@ -1787,7 +1787,7 @@
     <t>tfn3k</t>
   </si>
   <si>
-    <t>18 ч. 3 мин. 25 сек.</t>
+    <t>18 ч. 03 мин. 25 сек.</t>
   </si>
   <si>
     <t>195</t>
@@ -1841,7 +1841,7 @@
     <t>HeLLios</t>
   </si>
   <si>
-    <t>17 ч. 32 мин. 0 сек.</t>
+    <t>17 ч. 32 мин. 00 сек.</t>
   </si>
   <si>
     <t>201</t>
@@ -1904,7 +1904,7 @@
     <t>EVERGLOW</t>
   </si>
   <si>
-    <t>17 ч. 4 мин. 33 сек.</t>
+    <t>17 ч. 04 мин. 33 сек.</t>
   </si>
   <si>
     <t>208</t>
@@ -1913,7 +1913,7 @@
     <t>Креслоноцец</t>
   </si>
   <si>
-    <t>17 ч. 2 мин. 53 сек.</t>
+    <t>17 ч. 02 мин. 53 сек.</t>
   </si>
   <si>
     <t>209</t>
@@ -1922,7 +1922,7 @@
     <t>Башмак</t>
   </si>
   <si>
-    <t>17 ч. 2 мин. 41 сек.</t>
+    <t>17 ч. 02 мин. 41 сек.</t>
   </si>
   <si>
     <t>210</t>
@@ -1931,7 +1931,7 @@
     <t>UPO</t>
   </si>
   <si>
-    <t>17 ч. 1 мин. 45 сек.</t>
+    <t>17 ч. 01 мин. 45 сек.</t>
   </si>
   <si>
     <t>211</t>
@@ -1940,7 +1940,7 @@
     <t>NDancer</t>
   </si>
   <si>
-    <t>17 ч. 1 мин. 15 сек.</t>
+    <t>17 ч. 01 мин. 15 сек.</t>
   </si>
   <si>
     <t>212</t>
@@ -1967,7 +1967,7 @@
     <t>WarroR</t>
   </si>
   <si>
-    <t>16 ч. 52 мин. 8 сек.</t>
+    <t>16 ч. 52 мин. 08 сек.</t>
   </si>
   <si>
     <t>215</t>
@@ -2111,7 +2111,7 @@
     <t>kageneko</t>
   </si>
   <si>
-    <t>16 ч. 2 мин. 17 сек.</t>
+    <t>16 ч. 02 мин. 17 сек.</t>
   </si>
   <si>
     <t>231</t>
@@ -2165,7 +2165,7 @@
     <t>Игрок3</t>
   </si>
   <si>
-    <t>15 ч. 38 мин. 4 сек.</t>
+    <t>15 ч. 38 мин. 04 сек.</t>
   </si>
   <si>
     <t>237</t>
@@ -2228,7 +2228,7 @@
     <t>Аленка</t>
   </si>
   <si>
-    <t>15 ч. 0 мин. 32 сек.</t>
+    <t>15 ч. 00 мин. 32 сек.</t>
   </si>
   <si>
     <t>244</t>
@@ -2237,7 +2237,7 @@
     <t>IIgora</t>
   </si>
   <si>
-    <t>15 ч. 0 мин. 4 сек.</t>
+    <t>15 ч. 00 мин. 04 сек.</t>
   </si>
   <si>
     <t>245</t>
@@ -2264,7 +2264,7 @@
     <t>Миша-Буденновск</t>
   </si>
   <si>
-    <t>14 ч. 58 мин. 8 сек.</t>
+    <t>14 ч. 58 мин. 08 сек.</t>
   </si>
   <si>
     <t>248</t>
@@ -2273,7 +2273,7 @@
     <t>Стивочка</t>
   </si>
   <si>
-    <t>14 ч. 57 мин. 7 сек.</t>
+    <t>14 ч. 57 мин. 07 сек.</t>
   </si>
   <si>
     <t>249</t>
@@ -2327,7 +2327,7 @@
     <t>Ghost-Rider</t>
   </si>
   <si>
-    <t>14 ч. 43 мин. 1 сек.</t>
+    <t>14 ч. 43 мин. 01 сек.</t>
   </si>
   <si>
     <t>255</t>
@@ -2372,7 +2372,7 @@
     <t>вовик58</t>
   </si>
   <si>
-    <t>14 ч. 25 мин. 1 сек.</t>
+    <t>14 ч. 25 мин. 01 сек.</t>
   </si>
   <si>
     <t>260</t>
@@ -2399,7 +2399,7 @@
     <t>_nikki_</t>
   </si>
   <si>
-    <t>14 ч. 8 мин. 55 сек.</t>
+    <t>14 ч. 08 мин. 55 сек.</t>
   </si>
   <si>
     <t>263</t>
@@ -2408,7 +2408,7 @@
     <t>a_inc</t>
   </si>
   <si>
-    <t>14 ч. 8 мин. 27 сек.</t>
+    <t>14 ч. 08 мин. 27 сек.</t>
   </si>
   <si>
     <t>264</t>
@@ -2417,7 +2417,7 @@
     <t>Adronab</t>
   </si>
   <si>
-    <t>14 ч. 3 мин. 58 сек.</t>
+    <t>14 ч. 03 мин. 58 сек.</t>
   </si>
   <si>
     <t>265</t>
@@ -2471,7 +2471,7 @@
     <t>Vanchez</t>
   </si>
   <si>
-    <t>13 ч. 44 мин. 4 сек.</t>
+    <t>13 ч. 44 мин. 04 сек.</t>
   </si>
   <si>
     <t>271</t>
@@ -2480,7 +2480,7 @@
     <t>ПЕРЖО</t>
   </si>
   <si>
-    <t>13 ч. 42 мин. 7 сек.</t>
+    <t>13 ч. 42 мин. 07 сек.</t>
   </si>
   <si>
     <t>272</t>
@@ -2606,7 +2606,7 @@
     <t>name1</t>
   </si>
   <si>
-    <t>13 ч. 13 мин. 7 сек.</t>
+    <t>13 ч. 13 мин. 07 сек.</t>
   </si>
   <si>
     <t>286</t>
@@ -2633,7 +2633,7 @@
     <t>Falster</t>
   </si>
   <si>
-    <t>13 ч. 10 мин. 3 сек.</t>
+    <t>13 ч. 10 мин. 03 сек.</t>
   </si>
   <si>
     <t>289</t>
@@ -2642,7 +2642,7 @@
     <t>slaker22</t>
   </si>
   <si>
-    <t>13 ч. 9 мин. 16 сек.</t>
+    <t>13 ч. 09 мин. 16 сек.</t>
   </si>
   <si>
     <t>290</t>
@@ -2651,7 +2651,7 @@
     <t>olaolg</t>
   </si>
   <si>
-    <t>13 ч. 8 мин. 39 сек.</t>
+    <t>13 ч. 08 мин. 39 сек.</t>
   </si>
   <si>
     <t>291</t>
@@ -2660,7 +2660,7 @@
     <t>Irlani</t>
   </si>
   <si>
-    <t>13 ч. 5 мин. 9 сек.</t>
+    <t>13 ч. 05 мин. 09 сек.</t>
   </si>
   <si>
     <t>292</t>
@@ -2669,7 +2669,7 @@
     <t>kathraine</t>
   </si>
   <si>
-    <t>13 ч. 0 мин. 24 сек.</t>
+    <t>13 ч. 00 мин. 24 сек.</t>
   </si>
   <si>
     <t>293</t>
@@ -2705,7 +2705,7 @@
     <t>x1shn1k</t>
   </si>
   <si>
-    <t>12 ч. 55 мин. 5 сек.</t>
+    <t>12 ч. 55 мин. 05 сек.</t>
   </si>
   <si>
     <t>297</t>
@@ -2741,7 +2741,7 @@
     <t>Dencom</t>
   </si>
   <si>
-    <t>12 ч. 52 мин. 9 сек.</t>
+    <t>12 ч. 52 мин. 09 сек.</t>
   </si>
   <si>
     <t>301</t>
@@ -2831,7 +2831,7 @@
     <t>r0undabout</t>
   </si>
   <si>
-    <t>12 ч. 39 мин. 6 сек.</t>
+    <t>12 ч. 39 мин. 06 сек.</t>
   </si>
   <si>
     <t>311</t>
@@ -2858,7 +2858,7 @@
     <t>KOSTYA410</t>
   </si>
   <si>
-    <t>12 ч. 30 мин. 5 сек.</t>
+    <t>12 ч. 30 мин. 05 сек.</t>
   </si>
   <si>
     <t>314</t>
@@ -2903,7 +2903,7 @@
     <t>tanf93</t>
   </si>
   <si>
-    <t>12 ч. 5 мин. 9 сек.</t>
+    <t>12 ч. 05 мин. 09 сек.</t>
   </si>
   <si>
     <t>319</t>
@@ -2912,7 +2912,7 @@
     <t>инфо-пчелы</t>
   </si>
   <si>
-    <t>12 ч. 2 мин. 53 сек.</t>
+    <t>12 ч. 02 мин. 53 сек.</t>
   </si>
   <si>
     <t>320</t>
@@ -2921,7 +2921,7 @@
     <t>сварщик</t>
   </si>
   <si>
-    <t>12 ч. 1 мин. 45 сек.</t>
+    <t>12 ч. 01 мин. 45 сек.</t>
   </si>
   <si>
     <t>321</t>
@@ -2939,7 +2939,7 @@
     <t>Pelagiad</t>
   </si>
   <si>
-    <t>11 ч. 59 мин. 5 сек.</t>
+    <t>11 ч. 59 мин. 05 сек.</t>
   </si>
   <si>
     <t>323–324</t>
@@ -3113,7 +3113,7 @@
     <t>Cotzi</t>
   </si>
   <si>
-    <t>11 ч. 24 мин. 5 сек.</t>
+    <t>11 ч. 24 мин. 05 сек.</t>
   </si>
   <si>
     <t>343</t>
@@ -3122,7 +3122,7 @@
     <t>Smuglik</t>
   </si>
   <si>
-    <t>11 ч. 23 мин. 5 сек.</t>
+    <t>11 ч. 23 мин. 05 сек.</t>
   </si>
   <si>
     <t>344</t>
@@ -3131,7 +3131,7 @@
     <t>gosha_bel</t>
   </si>
   <si>
-    <t>11 ч. 23 мин. 0 сек.</t>
+    <t>11 ч. 23 мин. 00 сек.</t>
   </si>
   <si>
     <t>345</t>
@@ -3176,7 +3176,7 @@
     <t>bosuy</t>
   </si>
   <si>
-    <t>11 ч. 16 мин. 6 сек.</t>
+    <t>11 ч. 16 мин. 06 сек.</t>
   </si>
   <si>
     <t>350</t>
@@ -3185,7 +3185,7 @@
     <t>gorvin</t>
   </si>
   <si>
-    <t>11 ч. 13 мин. 7 сек.</t>
+    <t>11 ч. 13 мин. 07 сек.</t>
   </si>
   <si>
     <t>351</t>
@@ -3194,7 +3194,7 @@
     <t>tyrpyr</t>
   </si>
   <si>
-    <t>11 ч. 13 мин. 5 сек.</t>
+    <t>11 ч. 13 мин. 05 сек.</t>
   </si>
   <si>
     <t>352</t>
@@ -3212,7 +3212,7 @@
     <t>Thousend</t>
   </si>
   <si>
-    <t>11 ч. 7 мин. 3 сек.</t>
+    <t>11 ч. 07 мин. 03 сек.</t>
   </si>
   <si>
     <t>354</t>
@@ -3221,7 +3221,7 @@
     <t>Kot_letun</t>
   </si>
   <si>
-    <t>11 ч. 5 мин. 50 сек.</t>
+    <t>11 ч. 05 мин. 50 сек.</t>
   </si>
   <si>
     <t>355</t>
@@ -3230,7 +3230,7 @@
     <t>Обгоняша</t>
   </si>
   <si>
-    <t>11 ч. 5 мин. 15 сек.</t>
+    <t>11 ч. 05 мин. 15 сек.</t>
   </si>
   <si>
     <t>356</t>
@@ -3239,7 +3239,7 @@
     <t>BeTka</t>
   </si>
   <si>
-    <t>11 ч. 4 мин. 19 сек.</t>
+    <t>11 ч. 04 мин. 19 сек.</t>
   </si>
   <si>
     <t>357</t>
@@ -3248,7 +3248,7 @@
     <t>asalaga</t>
   </si>
   <si>
-    <t>11 ч. 1 мин. 55 сек.</t>
+    <t>11 ч. 01 мин. 55 сек.</t>
   </si>
   <si>
     <t>358</t>
@@ -3284,7 +3284,7 @@
     <t>Outofshape</t>
   </si>
   <si>
-    <t>10 ч. 46 мин. 0 сек.</t>
+    <t>10 ч. 46 мин. 00 сек.</t>
   </si>
   <si>
     <t>362</t>
@@ -3311,7 +3311,7 @@
     <t>Insane_Grinder</t>
   </si>
   <si>
-    <t>10 ч. 43 мин. 1 сек.</t>
+    <t>10 ч. 43 мин. 01 сек.</t>
   </si>
   <si>
     <t>365</t>
@@ -3509,7 +3509,7 @@
     <t>Wassjaja</t>
   </si>
   <si>
-    <t>10 ч. 7 мин. 42 сек.</t>
+    <t>10 ч. 07 мин. 42 сек.</t>
   </si>
   <si>
     <t>387</t>
@@ -3518,7 +3518,7 @@
     <t>Defaul</t>
   </si>
   <si>
-    <t>10 ч. 6 мин. 6 сек.</t>
+    <t>10 ч. 06 мин. 06 сек.</t>
   </si>
   <si>
     <t>388</t>
@@ -3527,7 +3527,7 @@
     <t>ржавый_камаз</t>
   </si>
   <si>
-    <t>10 ч. 5 мин. 46 сек.</t>
+    <t>10 ч. 05 мин. 46 сек.</t>
   </si>
   <si>
     <t>389</t>
@@ -3536,7 +3536,7 @@
     <t>boOm</t>
   </si>
   <si>
-    <t>10 ч. 5 мин. 41 сек.</t>
+    <t>10 ч. 05 мин. 41 сек.</t>
   </si>
   <si>
     <t>390</t>
@@ -3545,7 +3545,7 @@
     <t>die-hard</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 4 сек.</t>
+    <t>10 ч. 04 мин. 04 сек.</t>
   </si>
   <si>
     <t>391</t>
@@ -3554,7 +3554,7 @@
     <t>wheeeL</t>
   </si>
   <si>
-    <t>10 ч. 3 мин. 44 сек.</t>
+    <t>10 ч. 03 мин. 44 сек.</t>
   </si>
   <si>
     <t>392</t>
@@ -3563,7 +3563,7 @@
     <t>_XimiquE_</t>
   </si>
   <si>
-    <t>10 ч. 1 мин. 0 сек.</t>
+    <t>10 ч. 01 мин. 00 сек.</t>
   </si>
   <si>
     <t>393</t>
@@ -3635,7 +3635,7 @@
     <t>hangling</t>
   </si>
   <si>
-    <t>9 ч. 52 мин. 1 сек.</t>
+    <t>9 ч. 52 мин. 01 сек.</t>
   </si>
   <si>
     <t>401</t>
@@ -3662,7 +3662,7 @@
     <t>отпросился</t>
   </si>
   <si>
-    <t>9 ч. 49 мин. 9 сек.</t>
+    <t>9 ч. 49 мин. 09 сек.</t>
   </si>
   <si>
     <t>404</t>
@@ -3698,7 +3698,7 @@
     <t>Zheka169</t>
   </si>
   <si>
-    <t>9 ч. 40 мин. 6 сек.</t>
+    <t>9 ч. 40 мин. 06 сек.</t>
   </si>
   <si>
     <t>408</t>
@@ -3716,7 +3716,7 @@
     <t>dverg</t>
   </si>
   <si>
-    <t>9 ч. 39 мин. 1 сек.</t>
+    <t>9 ч. 39 мин. 01 сек.</t>
   </si>
   <si>
     <t>410</t>
@@ -3779,7 +3779,7 @@
     <t>ТыГонишь</t>
   </si>
   <si>
-    <t>9 ч. 30 мин. 5 сек.</t>
+    <t>9 ч. 30 мин. 05 сек.</t>
   </si>
   <si>
     <t>417</t>
@@ -3815,7 +3815,7 @@
     <t>KuzYur</t>
   </si>
   <si>
-    <t>9 ч. 26 мин. 4 сек.</t>
+    <t>9 ч. 26 мин. 04 сек.</t>
   </si>
   <si>
     <t>421</t>
@@ -3824,7 +3824,7 @@
     <t>вазовик</t>
   </si>
   <si>
-    <t>9 ч. 26 мин. 2 сек.</t>
+    <t>9 ч. 26 мин. 02 сек.</t>
   </si>
   <si>
     <t>422</t>
@@ -3878,7 +3878,7 @@
     <t>SamArKin</t>
   </si>
   <si>
-    <t>9 ч. 17 мин. 0 сек.</t>
+    <t>9 ч. 17 мин. 00 сек.</t>
   </si>
   <si>
     <t>428</t>
@@ -3896,7 +3896,7 @@
     <t>and_ReY_88</t>
   </si>
   <si>
-    <t>9 ч. 14 мин. 6 сек.</t>
+    <t>9 ч. 14 мин. 06 сек.</t>
   </si>
   <si>
     <t>430</t>
@@ -3932,7 +3932,7 @@
     <t>дядя_Паша</t>
   </si>
   <si>
-    <t>9 ч. 9 мин. 35 сек.</t>
+    <t>9 ч. 09 мин. 35 сек.</t>
   </si>
   <si>
     <t>434</t>
@@ -3941,7 +3941,7 @@
     <t>Bolot</t>
   </si>
   <si>
-    <t>9 ч. 6 мин. 38 сек.</t>
+    <t>9 ч. 06 мин. 38 сек.</t>
   </si>
   <si>
     <t>435</t>
@@ -3950,7 +3950,7 @@
     <t>Ш0ТАМ</t>
   </si>
   <si>
-    <t>9 ч. 5 мин. 57 сек.</t>
+    <t>9 ч. 05 мин. 57 сек.</t>
   </si>
   <si>
     <t>436</t>
@@ -3959,7 +3959,7 @@
     <t>Luxmaster</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 42 сек.</t>
+    <t>9 ч. 03 мин. 42 сек.</t>
   </si>
   <si>
     <t>437</t>
@@ -3968,7 +3968,7 @@
     <t>vvoland</t>
   </si>
   <si>
-    <t>9 ч. 2 мин. 17 сек.</t>
+    <t>9 ч. 02 мин. 17 сек.</t>
   </si>
   <si>
     <t>438</t>
@@ -3977,7 +3977,7 @@
     <t>Hovga</t>
   </si>
   <si>
-    <t>9 ч. 2 мин. 3 сек.</t>
+    <t>9 ч. 02 мин. 03 сек.</t>
   </si>
   <si>
     <t>439</t>
@@ -3986,7 +3986,7 @@
     <t>grevgen</t>
   </si>
   <si>
-    <t>9 ч. 1 мин. 20 сек.</t>
+    <t>9 ч. 01 мин. 20 сек.</t>
   </si>
   <si>
     <t>440</t>
@@ -3995,7 +3995,7 @@
     <t>dslf</t>
   </si>
   <si>
-    <t>9 ч. 1 мин. 7 сек.</t>
+    <t>9 ч. 01 мин. 07 сек.</t>
   </si>
   <si>
     <t>441</t>
@@ -4004,7 +4004,7 @@
     <t>-777-</t>
   </si>
   <si>
-    <t>9 ч. 1 мин. 0 сек.</t>
+    <t>9 ч. 01 мин. 00 сек.</t>
   </si>
   <si>
     <t>442</t>
@@ -4013,7 +4013,7 @@
     <t>m9so88</t>
   </si>
   <si>
-    <t>9 ч. 0 мин. 48 сек.</t>
+    <t>9 ч. 00 мин. 48 сек.</t>
   </si>
   <si>
     <t>443</t>
@@ -4022,7 +4022,7 @@
     <t>ITur</t>
   </si>
   <si>
-    <t>9 ч. 0 мин. 32 сек.</t>
+    <t>9 ч. 00 мин. 32 сек.</t>
   </si>
   <si>
     <t>444</t>
@@ -4085,7 +4085,7 @@
     <t>Сергуня</t>
   </si>
   <si>
-    <t>8 ч. 49 мин. 7 сек.</t>
+    <t>8 ч. 49 мин. 07 сек.</t>
   </si>
   <si>
     <t>451</t>
@@ -4112,7 +4112,7 @@
     <t>JIANa</t>
   </si>
   <si>
-    <t>8 ч. 44 мин. 0 сек.</t>
+    <t>8 ч. 44 мин. 00 сек.</t>
   </si>
   <si>
     <t>454</t>
@@ -4121,7 +4121,7 @@
     <t>Кинолог</t>
   </si>
   <si>
-    <t>8 ч. 43 мин. 5 сек.</t>
+    <t>8 ч. 43 мин. 05 сек.</t>
   </si>
   <si>
     <t>455</t>
@@ -4130,7 +4130,7 @@
     <t>Супербармен</t>
   </si>
   <si>
-    <t>8 ч. 43 мин. 0 сек.</t>
+    <t>8 ч. 43 мин. 00 сек.</t>
   </si>
   <si>
     <t>456</t>
@@ -4157,7 +4157,7 @@
     <t>KeyCRACKer</t>
   </si>
   <si>
-    <t>8 ч. 41 мин. 0 сек.</t>
+    <t>8 ч. 41 мин. 00 сек.</t>
   </si>
   <si>
     <t>459</t>
@@ -4184,7 +4184,7 @@
     <t>Slaveniy</t>
   </si>
   <si>
-    <t>8 ч. 39 мин. 1 сек.</t>
+    <t>8 ч. 39 мин. 01 сек.</t>
   </si>
   <si>
     <t>462</t>
@@ -4319,7 +4319,7 @@
     <t>-Wanted-</t>
   </si>
   <si>
-    <t>8 ч. 14 мин. 3 сек.</t>
+    <t>8 ч. 14 мин. 03 сек.</t>
   </si>
   <si>
     <t>477</t>
@@ -4337,7 +4337,7 @@
     <t>Ваньсон</t>
   </si>
   <si>
-    <t>8 ч. 12 мин. 5 сек.</t>
+    <t>8 ч. 12 мин. 05 сек.</t>
   </si>
   <si>
     <t>479</t>
@@ -4346,7 +4346,7 @@
     <t>m9_AZ</t>
   </si>
   <si>
-    <t>8 ч. 9 мин. 14 сек.</t>
+    <t>8 ч. 09 мин. 14 сек.</t>
   </si>
   <si>
     <t>480</t>
@@ -4355,7 +4355,7 @@
     <t>Гира</t>
   </si>
   <si>
-    <t>8 ч. 8 мин. 0 сек.</t>
+    <t>8 ч. 08 мин. 00 сек.</t>
   </si>
   <si>
     <t>481</t>
@@ -4364,7 +4364,7 @@
     <t>Шарманщик</t>
   </si>
   <si>
-    <t>8 ч. 7 мин. 2 сек.</t>
+    <t>8 ч. 07 мин. 02 сек.</t>
   </si>
   <si>
     <t>482</t>
@@ -4373,7 +4373,7 @@
     <t>Корн</t>
   </si>
   <si>
-    <t>8 ч. 6 мин. 41 сек.</t>
+    <t>8 ч. 06 мин. 41 сек.</t>
   </si>
   <si>
     <t>483</t>
@@ -4382,7 +4382,7 @@
     <t>Nik70</t>
   </si>
   <si>
-    <t>8 ч. 5 мин. 20 сек.</t>
+    <t>8 ч. 05 мин. 20 сек.</t>
   </si>
   <si>
     <t>484</t>
@@ -4391,7 +4391,7 @@
     <t>Regent</t>
   </si>
   <si>
-    <t>8 ч. 3 мин. 27 сек.</t>
+    <t>8 ч. 03 мин. 27 сек.</t>
   </si>
   <si>
     <t>485</t>
@@ -4400,7 +4400,7 @@
     <t>TJuggernaut</t>
   </si>
   <si>
-    <t>8 ч. 2 мин. 33 сек.</t>
+    <t>8 ч. 02 мин. 33 сек.</t>
   </si>
   <si>
     <t>486</t>
@@ -4409,7 +4409,7 @@
     <t>baltun_leo</t>
   </si>
   <si>
-    <t>8 ч. 0 мин. 49 сек.</t>
+    <t>8 ч. 00 мин. 49 сек.</t>
   </si>
   <si>
     <t>487</t>
@@ -4481,7 +4481,7 @@
     <t>BAY</t>
   </si>
   <si>
-    <t>7 ч. 49 мин. 4 сек.</t>
+    <t>7 ч. 49 мин. 04 сек.</t>
   </si>
   <si>
     <t>495</t>
@@ -4526,7 +4526,7 @@
     <t>БукваА</t>
   </si>
   <si>
-    <t>7 ч. 44 мин. 5 сек.</t>
+    <t>7 ч. 44 мин. 05 сек.</t>
   </si>
   <si>
     <t>500</t>
@@ -4580,7 +4580,7 @@
     <t>МсМотя</t>
   </si>
   <si>
-    <t>7 ч. 39 мин. 0 сек.</t>
+    <t>7 ч. 39 мин. 00 сек.</t>
   </si>
   <si>
     <t>506</t>
@@ -4625,7 +4625,7 @@
     <t>ябохтыздох</t>
   </si>
   <si>
-    <t>7 ч. 35 мин. 5 сек.</t>
+    <t>7 ч. 35 мин. 05 сек.</t>
   </si>
   <si>
     <t>511</t>
@@ -4634,7 +4634,7 @@
     <t>элля</t>
   </si>
   <si>
-    <t>7 ч. 34 мин. 6 сек.</t>
+    <t>7 ч. 34 мин. 06 сек.</t>
   </si>
   <si>
     <t>512</t>
@@ -4661,7 +4661,7 @@
     <t>DarkStar76</t>
   </si>
   <si>
-    <t>7 ч. 33 мин. 5 сек.</t>
+    <t>7 ч. 33 мин. 05 сек.</t>
   </si>
   <si>
     <t>515</t>
@@ -4679,7 +4679,7 @@
     <t>Катря</t>
   </si>
   <si>
-    <t>7 ч. 30 мин. 8 сек.</t>
+    <t>7 ч. 30 мин. 08 сек.</t>
   </si>
   <si>
     <t>517</t>
@@ -4760,7 +4760,7 @@
     <t>РодионГ</t>
   </si>
   <si>
-    <t>7 ч. 20 мин. 3 сек.</t>
+    <t>7 ч. 20 мин. 03 сек.</t>
   </si>
   <si>
     <t>526</t>
@@ -4778,7 +4778,7 @@
     <t>iOlga</t>
   </si>
   <si>
-    <t>7 ч. 15 мин. 2 сек.</t>
+    <t>7 ч. 15 мин. 02 сек.</t>
   </si>
   <si>
     <t>528</t>
@@ -4841,7 +4841,7 @@
     <t>olimpicano</t>
   </si>
   <si>
-    <t>7 ч. 9 мин. 52 сек.</t>
+    <t>7 ч. 09 мин. 52 сек.</t>
   </si>
   <si>
     <t>535</t>
@@ -4850,7 +4850,7 @@
     <t>Lyoks</t>
   </si>
   <si>
-    <t>7 ч. 8 мин. 25 сек.</t>
+    <t>7 ч. 08 мин. 25 сек.</t>
   </si>
   <si>
     <t>536</t>
@@ -4859,7 +4859,7 @@
     <t>RoaKoth</t>
   </si>
   <si>
-    <t>7 ч. 8 мин. 6 сек.</t>
+    <t>7 ч. 08 мин. 06 сек.</t>
   </si>
   <si>
     <t>537</t>
@@ -4868,7 +4868,7 @@
     <t>Savitri</t>
   </si>
   <si>
-    <t>7 ч. 7 мин. 48 сек.</t>
+    <t>7 ч. 07 мин. 48 сек.</t>
   </si>
   <si>
     <t>538</t>
@@ -4877,7 +4877,7 @@
     <t>drDr2</t>
   </si>
   <si>
-    <t>7 ч. 6 мин. 3 сек.</t>
+    <t>7 ч. 06 мин. 03 сек.</t>
   </si>
   <si>
     <t>539</t>
@@ -4886,7 +4886,7 @@
     <t>Русинов</t>
   </si>
   <si>
-    <t>7 ч. 2 мин. 25 сек.</t>
+    <t>7 ч. 02 мин. 25 сек.</t>
   </si>
   <si>
     <t>540</t>
@@ -4895,7 +4895,7 @@
     <t>Еремей</t>
   </si>
   <si>
-    <t>7 ч. 1 мин. 57 сек.</t>
+    <t>7 ч. 01 мин. 57 сек.</t>
   </si>
   <si>
     <t>541</t>
@@ -4904,7 +4904,7 @@
     <t>_Влада_</t>
   </si>
   <si>
-    <t>7 ч. 1 мин. 17 сек.</t>
+    <t>7 ч. 01 мин. 17 сек.</t>
   </si>
   <si>
     <t>542</t>
@@ -4949,7 +4949,7 @@
     <t>ZeeWaibiar</t>
   </si>
   <si>
-    <t>6 ч. 54 мин. 8 сек.</t>
+    <t>6 ч. 54 мин. 08 сек.</t>
   </si>
   <si>
     <t>547</t>
@@ -5147,7 +5147,7 @@
     <t>Vohel</t>
   </si>
   <si>
-    <t>6 ч. 38 мин. 5 сек.</t>
+    <t>6 ч. 38 мин. 05 сек.</t>
   </si>
   <si>
     <t>569</t>
@@ -5183,7 +5183,7 @@
     <t>младенец</t>
   </si>
   <si>
-    <t>6 ч. 36 мин. 0 сек.</t>
+    <t>6 ч. 36 мин. 00 сек.</t>
   </si>
   <si>
     <t>573</t>
@@ -5228,7 +5228,7 @@
     <t>клавоинка</t>
   </si>
   <si>
-    <t>6 ч. 34 мин. 8 сек.</t>
+    <t>6 ч. 34 мин. 08 сек.</t>
   </si>
   <si>
     <t>578</t>
@@ -5291,7 +5291,7 @@
     <t>oves</t>
   </si>
   <si>
-    <t>6 ч. 29 мин. 7 сек.</t>
+    <t>6 ч. 29 мин. 07 сек.</t>
   </si>
   <si>
     <t>585</t>
@@ -5354,7 +5354,7 @@
     <t>Grimpen</t>
   </si>
   <si>
-    <t>6 ч. 23 мин. 3 сек.</t>
+    <t>6 ч. 23 мин. 03 сек.</t>
   </si>
   <si>
     <t>592</t>
@@ -5363,7 +5363,7 @@
     <t>KAYFARYK</t>
   </si>
   <si>
-    <t>6 ч. 21 мин. 6 сек.</t>
+    <t>6 ч. 21 мин. 06 сек.</t>
   </si>
   <si>
     <t>593</t>
@@ -5408,7 +5408,7 @@
     <t>zeliks</t>
   </si>
   <si>
-    <t>6 ч. 19 мин. 2 сек.</t>
+    <t>6 ч. 19 мин. 02 сек.</t>
   </si>
   <si>
     <t>598</t>
@@ -5453,7 +5453,7 @@
     <t>сударь</t>
   </si>
   <si>
-    <t>6 ч. 17 мин. 4 сек.</t>
+    <t>6 ч. 17 мин. 04 сек.</t>
   </si>
   <si>
     <t>603</t>
@@ -5480,7 +5480,7 @@
     <t>Juvman</t>
   </si>
   <si>
-    <t>6 ч. 15 мин. 7 сек.</t>
+    <t>6 ч. 15 мин. 07 сек.</t>
   </si>
   <si>
     <t>606</t>
@@ -5498,7 +5498,7 @@
     <t>бегущий_ананас</t>
   </si>
   <si>
-    <t>6 ч. 13 мин. 7 сек.</t>
+    <t>6 ч. 13 мин. 07 сек.</t>
   </si>
   <si>
     <t>608</t>
@@ -5516,7 +5516,7 @@
     <t>daktule</t>
   </si>
   <si>
-    <t>6 ч. 12 мин. 8 сек.</t>
+    <t>6 ч. 12 мин. 08 сек.</t>
   </si>
   <si>
     <t>610</t>
@@ -5534,7 +5534,7 @@
     <t>forbatyr</t>
   </si>
   <si>
-    <t>6 ч. 11 мин. 5 сек.</t>
+    <t>6 ч. 11 мин. 05 сек.</t>
   </si>
   <si>
     <t>612</t>
@@ -5570,7 +5570,7 @@
     <t>vido88</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 44 сек.</t>
+    <t>6 ч. 09 мин. 44 сек.</t>
   </si>
   <si>
     <t>616</t>
@@ -5579,7 +5579,7 @@
     <t>AnArda</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 42 сек.</t>
+    <t>6 ч. 09 мин. 42 сек.</t>
   </si>
   <si>
     <t>617</t>
@@ -5588,7 +5588,7 @@
     <t>suenot</t>
   </si>
   <si>
-    <t>6 ч. 8 мин. 47 сек.</t>
+    <t>6 ч. 08 мин. 47 сек.</t>
   </si>
   <si>
     <t>618</t>
@@ -5597,7 +5597,7 @@
     <t>Gosick</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 59 сек.</t>
+    <t>6 ч. 07 мин. 59 сек.</t>
   </si>
   <si>
     <t>619</t>
@@ -5606,7 +5606,7 @@
     <t>200поСкоростной</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 45 сек.</t>
+    <t>6 ч. 07 мин. 45 сек.</t>
   </si>
   <si>
     <t>620</t>
@@ -5615,7 +5615,7 @@
     <t>vostok72</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 31 сек.</t>
+    <t>6 ч. 07 мин. 31 сек.</t>
   </si>
   <si>
     <t>621</t>
@@ -5624,7 +5624,7 @@
     <t>Эхпрокачуу</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 21 сек.</t>
+    <t>6 ч. 07 мин. 21 сек.</t>
   </si>
   <si>
     <t>622</t>
@@ -5633,7 +5633,7 @@
     <t>Предатель</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 13 сек.</t>
+    <t>6 ч. 07 мин. 13 сек.</t>
   </si>
   <si>
     <t>623</t>
@@ -5642,7 +5642,7 @@
     <t>Healingproof</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 2 сек.</t>
+    <t>6 ч. 07 мин. 02 сек.</t>
   </si>
   <si>
     <t>624</t>
@@ -5651,7 +5651,7 @@
     <t>unname</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 49 сек.</t>
+    <t>6 ч. 06 мин. 49 сек.</t>
   </si>
   <si>
     <t>625</t>
@@ -5660,7 +5660,7 @@
     <t>Atljh0987</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 16 сек.</t>
+    <t>6 ч. 06 мин. 16 сек.</t>
   </si>
   <si>
     <t>626</t>
@@ -5669,7 +5669,7 @@
     <t>arch_commander</t>
   </si>
   <si>
-    <t>6 ч. 5 мин. 12 сек.</t>
+    <t>6 ч. 05 мин. 12 сек.</t>
   </si>
   <si>
     <t>627</t>
@@ -5678,7 +5678,7 @@
     <t>Vadimnecha</t>
   </si>
   <si>
-    <t>6 ч. 3 мин. 53 сек.</t>
+    <t>6 ч. 03 мин. 53 сек.</t>
   </si>
   <si>
     <t>628</t>
@@ -5687,7 +5687,7 @@
     <t>vogoniu</t>
   </si>
   <si>
-    <t>6 ч. 3 мин. 38 сек.</t>
+    <t>6 ч. 03 мин. 38 сек.</t>
   </si>
   <si>
     <t>629</t>
@@ -5696,7 +5696,7 @@
     <t>oqiwue</t>
   </si>
   <si>
-    <t>6 ч. 3 мин. 32 сек.</t>
+    <t>6 ч. 03 мин. 32 сек.</t>
   </si>
   <si>
     <t>630</t>
@@ -5705,7 +5705,7 @@
     <t>_Daemon_</t>
   </si>
   <si>
-    <t>6 ч. 2 мин. 50 сек.</t>
+    <t>6 ч. 02 мин. 50 сек.</t>
   </si>
   <si>
     <t>631</t>
@@ -5714,7 +5714,7 @@
     <t>YaRomashka</t>
   </si>
   <si>
-    <t>6 ч. 2 мин. 45 сек.</t>
+    <t>6 ч. 02 мин. 45 сек.</t>
   </si>
   <si>
     <t>632</t>
@@ -5723,7 +5723,7 @@
     <t>neophyte</t>
   </si>
   <si>
-    <t>6 ч. 2 мин. 8 сек.</t>
+    <t>6 ч. 02 мин. 08 сек.</t>
   </si>
   <si>
     <t>633</t>
@@ -5732,7 +5732,7 @@
     <t>Morbid_Angel</t>
   </si>
   <si>
-    <t>6 ч. 1 мин. 46 сек.</t>
+    <t>6 ч. 01 мин. 46 сек.</t>
   </si>
   <si>
     <t>634</t>
@@ -5741,7 +5741,7 @@
     <t>oyasumi</t>
   </si>
   <si>
-    <t>6 ч. 1 мин. 36 сек.</t>
+    <t>6 ч. 01 мин. 36 сек.</t>
   </si>
   <si>
     <t>635</t>
@@ -5750,7 +5750,7 @@
     <t>asergi</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 57 сек.</t>
+    <t>6 ч. 00 мин. 57 сек.</t>
   </si>
   <si>
     <t>636</t>
@@ -5822,7 +5822,7 @@
     <t>darkneon</t>
   </si>
   <si>
-    <t>5 ч. 57 мин. 3 сек.</t>
+    <t>5 ч. 57 мин. 03 сек.</t>
   </si>
   <si>
     <t>644</t>
@@ -5885,7 +5885,7 @@
     <t>Unwear</t>
   </si>
   <si>
-    <t>5 ч. 52 мин. 4 сек.</t>
+    <t>5 ч. 52 мин. 04 сек.</t>
   </si>
   <si>
     <t>651</t>
@@ -5894,7 +5894,7 @@
     <t>VladimirZhirov</t>
   </si>
   <si>
-    <t>5 ч. 51 мин. 3 сек.</t>
+    <t>5 ч. 51 мин. 03 сек.</t>
   </si>
   <si>
     <t>652</t>
@@ -5930,7 +5930,7 @@
     <t>yog321</t>
   </si>
   <si>
-    <t>5 ч. 49 мин. 5 сек.</t>
+    <t>5 ч. 49 мин. 05 сек.</t>
   </si>
   <si>
     <t>656</t>
@@ -5975,7 +5975,7 @@
     <t>python_py</t>
   </si>
   <si>
-    <t>5 ч. 47 мин. 7 сек.</t>
+    <t>5 ч. 47 мин. 07 сек.</t>
   </si>
   <si>
     <t>661</t>
@@ -6020,7 +6020,7 @@
     <t>classifiedman</t>
   </si>
   <si>
-    <t>5 ч. 45 мин. 9 сек.</t>
+    <t>5 ч. 45 мин. 09 сек.</t>
   </si>
   <si>
     <t>666</t>
@@ -6092,7 +6092,7 @@
     <t>batton</t>
   </si>
   <si>
-    <t>5 ч. 41 мин. 2 сек.</t>
+    <t>5 ч. 41 мин. 02 сек.</t>
   </si>
   <si>
     <t>674</t>
@@ -6110,7 +6110,7 @@
     <t>Минералка</t>
   </si>
   <si>
-    <t>5 ч. 40 мин. 5 сек.</t>
+    <t>5 ч. 40 мин. 05 сек.</t>
   </si>
   <si>
     <t>676</t>
@@ -6128,7 +6128,7 @@
     <t>Jon31</t>
   </si>
   <si>
-    <t>5 ч. 39 мин. 1 сек.</t>
+    <t>5 ч. 39 мин. 01 сек.</t>
   </si>
   <si>
     <t>678</t>
@@ -6164,7 +6164,7 @@
     <t>SnalM</t>
   </si>
   <si>
-    <t>5 ч. 36 мин. 4 сек.</t>
+    <t>5 ч. 36 мин. 04 сек.</t>
   </si>
   <si>
     <t>682</t>
@@ -6272,7 +6272,7 @@
     <t>Скороход</t>
   </si>
   <si>
-    <t>5 ч. 27 мин. 5 сек.</t>
+    <t>5 ч. 27 мин. 05 сек.</t>
   </si>
   <si>
     <t>694</t>
@@ -6281,7 +6281,7 @@
     <t>iforrest</t>
   </si>
   <si>
-    <t>5 ч. 26 мин. 5 сек.</t>
+    <t>5 ч. 26 мин. 05 сек.</t>
   </si>
   <si>
     <t>695</t>
@@ -6308,7 +6308,7 @@
     <t>-MONOLITH</t>
   </si>
   <si>
-    <t>5 ч. 25 мин. 5 сек.</t>
+    <t>5 ч. 25 мин. 05 сек.</t>
   </si>
   <si>
     <t>698</t>
@@ -6353,7 +6353,7 @@
     <t>Drayn</t>
   </si>
   <si>
-    <t>5 ч. 21 мин. 3 сек.</t>
+    <t>5 ч. 21 мин. 03 сек.</t>
   </si>
   <si>
     <t>lafit</t>
@@ -6365,7 +6365,7 @@
     <t>Мамай_Папай</t>
   </si>
   <si>
-    <t>5 ч. 21 мин. 0 сек.</t>
+    <t>5 ч. 21 мин. 00 сек.</t>
   </si>
   <si>
     <t>705</t>
@@ -6464,7 +6464,7 @@
     <t>Vertex_</t>
   </si>
   <si>
-    <t>5 ч. 15 мин. 9 сек.</t>
+    <t>5 ч. 15 мин. 09 сек.</t>
   </si>
   <si>
     <t>716</t>
@@ -6527,7 +6527,7 @@
     <t>DOGS</t>
   </si>
   <si>
-    <t>5 ч. 9 мин. 53 сек.</t>
+    <t>5 ч. 09 мин. 53 сек.</t>
   </si>
   <si>
     <t>723</t>
@@ -6536,7 +6536,7 @@
     <t>coffee_break</t>
   </si>
   <si>
-    <t>5 ч. 9 мин. 11 сек.</t>
+    <t>5 ч. 09 мин. 11 сек.</t>
   </si>
   <si>
     <t>724</t>
@@ -6545,7 +6545,7 @@
     <t>neus</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 11 сек.</t>
+    <t>5 ч. 08 мин. 11 сек.</t>
   </si>
   <si>
     <t>725</t>
@@ -6554,7 +6554,7 @@
     <t>psst</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 53 сек.</t>
+    <t>5 ч. 07 мин. 53 сек.</t>
   </si>
   <si>
     <t>726</t>
@@ -6563,7 +6563,7 @@
     <t>menoxe</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 45 сек.</t>
+    <t>5 ч. 07 мин. 45 сек.</t>
   </si>
   <si>
     <t>727</t>
@@ -6572,7 +6572,7 @@
     <t>petzsch</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 44 сек.</t>
+    <t>5 ч. 07 мин. 44 сек.</t>
   </si>
   <si>
     <t>728</t>
@@ -6581,7 +6581,7 @@
     <t>HappyHardcore</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 13 сек.</t>
+    <t>5 ч. 07 мин. 13 сек.</t>
   </si>
   <si>
     <t>729</t>
@@ -6590,7 +6590,7 @@
     <t>CaTuP</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 6 сек.</t>
+    <t>5 ч. 07 мин. 06 сек.</t>
   </si>
   <si>
     <t>730</t>
@@ -6599,7 +6599,7 @@
     <t>zewz</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 36 сек.</t>
+    <t>5 ч. 06 мин. 36 сек.</t>
   </si>
   <si>
     <t>731</t>
@@ -6608,7 +6608,7 @@
     <t>victorliric</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 31 сек.</t>
+    <t>5 ч. 06 мин. 31 сек.</t>
   </si>
   <si>
     <t>732</t>
@@ -6617,7 +6617,7 @@
     <t>Andorian</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 3 сек.</t>
+    <t>5 ч. 06 мин. 03 сек.</t>
   </si>
   <si>
     <t>733</t>
@@ -6626,7 +6626,7 @@
     <t>SEFER</t>
   </si>
   <si>
-    <t>5 ч. 5 мин. 55 сек.</t>
+    <t>5 ч. 05 мин. 55 сек.</t>
   </si>
   <si>
     <t>734</t>
@@ -6635,7 +6635,7 @@
     <t>АСкворешня-Мчит</t>
   </si>
   <si>
-    <t>5 ч. 5 мин. 47 сек.</t>
+    <t>5 ч. 05 мин. 47 сек.</t>
   </si>
   <si>
     <t>735</t>
@@ -6644,7 +6644,7 @@
     <t>Paloma</t>
   </si>
   <si>
-    <t>5 ч. 4 мин. 16 сек.</t>
+    <t>5 ч. 04 мин. 16 сек.</t>
   </si>
   <si>
     <t>736</t>
@@ -6653,7 +6653,7 @@
     <t>Giwwi</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 24 сек.</t>
+    <t>5 ч. 03 мин. 24 сек.</t>
   </si>
   <si>
     <t>737</t>
@@ -6662,7 +6662,7 @@
     <t>atikin88</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 44 сек.</t>
+    <t>5 ч. 02 мин. 44 сек.</t>
   </si>
   <si>
     <t>738</t>
@@ -6671,7 +6671,7 @@
     <t>mishlen79</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 32 сек.</t>
+    <t>5 ч. 01 мин. 32 сек.</t>
   </si>
   <si>
     <t>739</t>
@@ -6680,7 +6680,7 @@
     <t>Shivo</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 7 сек.</t>
+    <t>5 ч. 01 мин. 07 сек.</t>
   </si>
   <si>
     <t>740</t>
@@ -6734,7 +6734,7 @@
     <t>Нур-Султан</t>
   </si>
   <si>
-    <t>4 ч. 56 мин. 5 сек.</t>
+    <t>4 ч. 56 мин. 05 сек.</t>
   </si>
   <si>
     <t>746</t>
@@ -6869,7 +6869,7 @@
     <t>kryto</t>
   </si>
   <si>
-    <t>4 ч. 49 мин. 4 сек.</t>
+    <t>4 ч. 49 мин. 04 сек.</t>
   </si>
   <si>
     <t>761</t>
@@ -6878,7 +6878,7 @@
     <t>Galaad</t>
   </si>
   <si>
-    <t>4 ч. 49 мин. 0 сек.</t>
+    <t>4 ч. 49 мин. 00 сек.</t>
   </si>
   <si>
     <t>762</t>
@@ -6914,7 +6914,7 @@
     <t>Demien89</t>
   </si>
   <si>
-    <t>4 ч. 48 мин. 7 сек.</t>
+    <t>4 ч. 48 мин. 07 сек.</t>
   </si>
   <si>
     <t>766</t>
@@ -6959,7 +6959,7 @@
     <t>nikit</t>
   </si>
   <si>
-    <t>4 ч. 46 мин. 0 сек.</t>
+    <t>4 ч. 46 мин. 00 сек.</t>
   </si>
   <si>
     <t>771</t>
@@ -7040,7 +7040,7 @@
     <t>apchhi</t>
   </si>
   <si>
-    <t>4 ч. 41 мин. 6 сек.</t>
+    <t>4 ч. 41 мин. 06 сек.</t>
   </si>
   <si>
     <t>780</t>
@@ -7049,7 +7049,7 @@
     <t>lampard108</t>
   </si>
   <si>
-    <t>4 ч. 41 мин. 2 сек.</t>
+    <t>4 ч. 41 мин. 02 сек.</t>
   </si>
   <si>
     <t>781</t>
@@ -7085,7 +7085,7 @@
     <t>azyl</t>
   </si>
   <si>
-    <t>4 ч. 40 мин. 0 сек.</t>
+    <t>4 ч. 40 мин. 00 сек.</t>
   </si>
   <si>
     <t>785</t>
@@ -7103,7 +7103,7 @@
     <t>Us2s</t>
   </si>
   <si>
-    <t>4 ч. 39 мин. 3 сек.</t>
+    <t>4 ч. 39 мин. 03 сек.</t>
   </si>
   <si>
     <t>787</t>
@@ -7157,7 +7157,7 @@
     <t>pewpewpow</t>
   </si>
   <si>
-    <t>4 ч. 35 мин. 8 сек.</t>
+    <t>4 ч. 35 мин. 08 сек.</t>
   </si>
   <si>
     <t>793</t>
@@ -7211,7 +7211,7 @@
     <t>IRISCHKA</t>
   </si>
   <si>
-    <t>4 ч. 33 мин. 4 сек.</t>
+    <t>4 ч. 33 мин. 04 сек.</t>
   </si>
   <si>
     <t>799</t>
@@ -7265,7 +7265,7 @@
     <t>Kalyn-Davis</t>
   </si>
   <si>
-    <t>4 ч. 30 мин. 1 сек.</t>
+    <t>4 ч. 30 мин. 01 сек.</t>
   </si>
   <si>
     <t>805</t>
@@ -7337,7 +7337,7 @@
     <t>Квак</t>
   </si>
   <si>
-    <t>4 ч. 28 мин. 8 сек.</t>
+    <t>4 ч. 28 мин. 08 сек.</t>
   </si>
   <si>
     <t>813–814</t>
@@ -7346,7 +7346,7 @@
     <t>poiuyt180</t>
   </si>
   <si>
-    <t>4 ч. 28 мин. 7 сек.</t>
+    <t>4 ч. 28 мин. 07 сек.</t>
   </si>
   <si>
     <t>Manhunt714</t>
@@ -7376,7 +7376,7 @@
     <t>Tenfrow</t>
   </si>
   <si>
-    <t>4 ч. 27 мин. 5 сек.</t>
+    <t>4 ч. 27 мин. 05 сек.</t>
   </si>
   <si>
     <t>818</t>
@@ -7385,7 +7385,7 @@
     <t>Халк</t>
   </si>
   <si>
-    <t>4 ч. 27 мин. 4 сек.</t>
+    <t>4 ч. 27 мин. 04 сек.</t>
   </si>
   <si>
     <t>819</t>
@@ -7538,7 +7538,7 @@
     <t>BRATKONDRAT</t>
   </si>
   <si>
-    <t>4 ч. 19 мин. 2 сек.</t>
+    <t>4 ч. 19 мин. 02 сек.</t>
   </si>
   <si>
     <t>836</t>
@@ -7646,7 +7646,7 @@
     <t>lesnoysnip</t>
   </si>
   <si>
-    <t>4 ч. 17 мин. 7 сек.</t>
+    <t>4 ч. 17 мин. 07 сек.</t>
   </si>
   <si>
     <t>848</t>
@@ -7709,7 +7709,7 @@
     <t>buzzy</t>
   </si>
   <si>
-    <t>4 ч. 12 мин. 6 сек.</t>
+    <t>4 ч. 12 мин. 06 сек.</t>
   </si>
   <si>
     <t>855</t>
@@ -7745,7 +7745,7 @@
     <t>ajka616</t>
   </si>
   <si>
-    <t>4 ч. 11 мин. 6 сек.</t>
+    <t>4 ч. 11 мин. 06 сек.</t>
   </si>
   <si>
     <t>859</t>
@@ -7772,7 +7772,7 @@
     <t>dermodemon</t>
   </si>
   <si>
-    <t>4 ч. 10 мин. 1 сек.</t>
+    <t>4 ч. 10 мин. 01 сек.</t>
   </si>
   <si>
     <t>862</t>
@@ -7781,7 +7781,7 @@
     <t>Спелый</t>
   </si>
   <si>
-    <t>4 ч. 10 мин. 0 сек.</t>
+    <t>4 ч. 10 мин. 00 сек.</t>
   </si>
   <si>
     <t>863</t>
@@ -7790,7 +7790,7 @@
     <t>Ilya666</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 55 сек.</t>
+    <t>4 ч. 09 мин. 55 сек.</t>
   </si>
   <si>
     <t>864</t>
@@ -7799,7 +7799,7 @@
     <t>Хаотический</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 25 сек.</t>
+    <t>4 ч. 09 мин. 25 сек.</t>
   </si>
   <si>
     <t>865</t>
@@ -7808,7 +7808,7 @@
     <t>Squirr</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 6 сек.</t>
+    <t>4 ч. 09 мин. 06 сек.</t>
   </si>
   <si>
     <t>866</t>
@@ -7817,7 +7817,7 @@
     <t>Hei5</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 27 сек.</t>
+    <t>4 ч. 08 мин. 27 сек.</t>
   </si>
   <si>
     <t>867–868</t>
@@ -7826,7 +7826,7 @@
     <t>ip_2112</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 14 сек.</t>
+    <t>4 ч. 08 мин. 14 сек.</t>
   </si>
   <si>
     <t>massa</t>
@@ -7838,7 +7838,7 @@
     <t>_Сайман_</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 2 сек.</t>
+    <t>4 ч. 08 мин. 02 сек.</t>
   </si>
   <si>
     <t>870</t>
@@ -7847,7 +7847,7 @@
     <t>Гравий</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 11 сек.</t>
+    <t>4 ч. 05 мин. 11 сек.</t>
   </si>
   <si>
     <t>871</t>
@@ -7856,7 +7856,7 @@
     <t>Татуяна</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 58 сек.</t>
+    <t>4 ч. 04 мин. 58 сек.</t>
   </si>
   <si>
     <t>872</t>
@@ -7865,7 +7865,7 @@
     <t>__TEMA__</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 41 сек.</t>
+    <t>4 ч. 04 мин. 41 сек.</t>
   </si>
   <si>
     <t>873</t>
@@ -7874,7 +7874,7 @@
     <t>Фиксик</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 19 сек.</t>
+    <t>4 ч. 04 мин. 19 сек.</t>
   </si>
   <si>
     <t>874</t>
@@ -7883,7 +7883,7 @@
     <t>ВАТ</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 51 сек.</t>
+    <t>4 ч. 03 мин. 51 сек.</t>
   </si>
   <si>
     <t>875</t>
@@ -7892,7 +7892,7 @@
     <t>aimpu</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 2 сек.</t>
+    <t>4 ч. 03 мин. 02 сек.</t>
   </si>
   <si>
     <t>876</t>
@@ -7901,7 +7901,7 @@
     <t>Кадий</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 51 сек.</t>
+    <t>4 ч. 02 мин. 51 сек.</t>
   </si>
   <si>
     <t>877</t>
@@ -7910,7 +7910,7 @@
     <t>IamCrazy</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 47 сек.</t>
+    <t>4 ч. 01 мин. 47 сек.</t>
   </si>
   <si>
     <t>878</t>
@@ -7919,7 +7919,7 @@
     <t>lusisha</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 12 сек.</t>
+    <t>4 ч. 01 мин. 12 сек.</t>
   </si>
   <si>
     <t>879</t>
@@ -7928,7 +7928,7 @@
     <t>freia</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 10 сек.</t>
+    <t>4 ч. 01 мин. 10 сек.</t>
   </si>
   <si>
     <t>880</t>
@@ -7937,7 +7937,7 @@
     <t>_-Shadow-_</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 34 сек.</t>
+    <t>4 ч. 00 мин. 34 сек.</t>
   </si>
   <si>
     <t>881</t>
@@ -7946,7 +7946,7 @@
     <t>FreeHugs</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 20 сек.</t>
+    <t>4 ч. 00 мин. 20 сек.</t>
   </si>
   <si>
     <t>882</t>
@@ -7955,7 +7955,7 @@
     <t>Книголюб</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 10 сек.</t>
+    <t>4 ч. 00 мин. 10 сек.</t>
   </si>
   <si>
     <t>883</t>
@@ -7982,7 +7982,7 @@
     <t>vova555</t>
   </si>
   <si>
-    <t>3 ч. 59 мин. 3 сек.</t>
+    <t>3 ч. 59 мин. 03 сек.</t>
   </si>
   <si>
     <t>886</t>
@@ -8063,7 +8063,7 @@
     <t>gaintsev</t>
   </si>
   <si>
-    <t>3 ч. 56 мин. 9 сек.</t>
+    <t>3 ч. 56 мин. 09 сек.</t>
   </si>
   <si>
     <t>895</t>
@@ -8180,7 +8180,7 @@
     <t>ps1501</t>
   </si>
   <si>
-    <t>3 ч. 53 мин. 5 сек.</t>
+    <t>3 ч. 53 мин. 05 сек.</t>
   </si>
   <si>
     <t>908</t>
@@ -8198,7 +8198,7 @@
     <t>kochtaik</t>
   </si>
   <si>
-    <t>3 ч. 52 мин. 4 сек.</t>
+    <t>3 ч. 52 мин. 04 сек.</t>
   </si>
   <si>
     <t>910</t>
@@ -8234,7 +8234,7 @@
     <t>oligarh83</t>
   </si>
   <si>
-    <t>3 ч. 51 мин. 1 сек.</t>
+    <t>3 ч. 51 мин. 01 сек.</t>
   </si>
   <si>
     <t>914</t>
@@ -8570,7 +8570,7 @@
     <t>HellBoy33</t>
   </si>
   <si>
-    <t>3 ч. 35 мин. 6 сек.</t>
+    <t>3 ч. 35 мин. 06 сек.</t>
   </si>
   <si>
     <t>952</t>
@@ -8642,7 +8642,7 @@
     <t>Speed_King</t>
   </si>
   <si>
-    <t>3 ч. 34 мин. 1 сек.</t>
+    <t>3 ч. 34 мин. 01 сек.</t>
   </si>
   <si>
     <t>960</t>
@@ -8678,7 +8678,7 @@
     <t>dim4ik11</t>
   </si>
   <si>
-    <t>3 ч. 33 мин. 1 сек.</t>
+    <t>3 ч. 33 мин. 01 сек.</t>
   </si>
   <si>
     <t>964</t>
@@ -8741,7 +8741,7 @@
     <t>Prodrive</t>
   </si>
   <si>
-    <t>3 ч. 31 мин. 0 сек.</t>
+    <t>3 ч. 31 мин. 00 сек.</t>
   </si>
   <si>
     <t>971</t>
@@ -8777,7 +8777,7 @@
     <t>Capr</t>
   </si>
   <si>
-    <t>3 ч. 30 мин. 7 сек.</t>
+    <t>3 ч. 30 мин. 07 сек.</t>
   </si>
   <si>
     <t>975</t>
@@ -8876,7 +8876,7 @@
     <t>OverPower</t>
   </si>
   <si>
-    <t>3 ч. 28 мин. 0 сек.</t>
+    <t>3 ч. 28 мин. 00 сек.</t>
   </si>
   <si>
     <t>986</t>
@@ -8957,7 +8957,7 @@
     <t>usernm</t>
   </si>
   <si>
-    <t>3 ч. 26 мин. 0 сек.</t>
+    <t>3 ч. 26 мин. 00 сек.</t>
   </si>
   <si>
     <t>995</t>
@@ -8993,7 +8993,7 @@
     <t>nastyke</t>
   </si>
   <si>
-    <t>3 ч. 25 мин. 1 сек.</t>
+    <t>3 ч. 25 мин. 01 сек.</t>
   </si>
   <si>
     <t>999</t>
@@ -9020,7 +9020,7 @@
     <t>beniscook</t>
   </si>
   <si>
-    <t>3 ч. 24 мин. 5 сек.</t>
+    <t>3 ч. 24 мин. 05 сек.</t>
   </si>
   <si>
     <t>zenz</t>
@@ -9113,7 +9113,7 @@
     <t>_Snezhinka_</t>
   </si>
   <si>
-    <t>3 ч. 21 мин. 2 сек.</t>
+    <t>3 ч. 21 мин. 02 сек.</t>
   </si>
   <si>
     <t>1013</t>
@@ -9140,7 +9140,7 @@
     <t>Pavellum</t>
   </si>
   <si>
-    <t>3 ч. 20 мин. 5 сек.</t>
+    <t>3 ч. 20 мин. 05 сек.</t>
   </si>
   <si>
     <t>1016</t>
@@ -9149,7 +9149,7 @@
     <t>KiD2</t>
   </si>
   <si>
-    <t>3 ч. 20 мин. 4 сек.</t>
+    <t>3 ч. 20 мин. 04 сек.</t>
   </si>
   <si>
     <t>1017</t>
@@ -9176,7 +9176,7 @@
     <t>Яня</t>
   </si>
   <si>
-    <t>3 ч. 19 мин. 7 сек.</t>
+    <t>3 ч. 19 мин. 07 сек.</t>
   </si>
   <si>
     <t>1020</t>
@@ -9266,7 +9266,7 @@
     <t>Schoolboy</t>
   </si>
   <si>
-    <t>3 ч. 16 мин. 6 сек.</t>
+    <t>3 ч. 16 мин. 06 сек.</t>
   </si>
   <si>
     <t>1030</t>
@@ -9275,7 +9275,7 @@
     <t>Iva_</t>
   </si>
   <si>
-    <t>3 ч. 16 мин. 0 сек.</t>
+    <t>3 ч. 16 мин. 00 сек.</t>
   </si>
   <si>
     <t>1031</t>
@@ -9320,7 +9320,7 @@
     <t>volo_volare</t>
   </si>
   <si>
-    <t>3 ч. 14 мин. 9 сек.</t>
+    <t>3 ч. 14 мин. 09 сек.</t>
   </si>
   <si>
     <t>1036</t>
@@ -9428,7 +9428,7 @@
     <t>Racer729</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 57 сек.</t>
+    <t>3 ч. 09 мин. 57 сек.</t>
   </si>
   <si>
     <t>1048</t>
@@ -9437,7 +9437,7 @@
     <t>NinaVladi</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 34 сек.</t>
+    <t>3 ч. 09 мин. 34 сек.</t>
   </si>
   <si>
     <t>1049</t>
@@ -9446,7 +9446,7 @@
     <t>Fuuruub</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 22 сек.</t>
+    <t>3 ч. 09 мин. 22 сек.</t>
   </si>
   <si>
     <t>1050</t>
@@ -9455,7 +9455,7 @@
     <t>TuzemooN</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 52 сек.</t>
+    <t>3 ч. 08 мин. 52 сек.</t>
   </si>
   <si>
     <t>1051</t>
@@ -9464,7 +9464,7 @@
     <t>Zoomskij</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 36 сек.</t>
+    <t>3 ч. 08 мин. 36 сек.</t>
   </si>
   <si>
     <t>1052</t>
@@ -9473,7 +9473,7 @@
     <t>pikwik</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 27 сек.</t>
+    <t>3 ч. 08 мин. 27 сек.</t>
   </si>
   <si>
     <t>1053</t>
@@ -9482,7 +9482,7 @@
     <t>TSI</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 17 сек.</t>
+    <t>3 ч. 08 мин. 17 сек.</t>
   </si>
   <si>
     <t>1054</t>
@@ -9491,7 +9491,7 @@
     <t>BlaZe_RoX</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 59 сек.</t>
+    <t>3 ч. 07 мин. 59 сек.</t>
   </si>
   <si>
     <t>1055</t>
@@ -9500,7 +9500,7 @@
     <t>AspoD</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 53 сек.</t>
+    <t>3 ч. 07 мин. 53 сек.</t>
   </si>
   <si>
     <t>1056</t>
@@ -9509,7 +9509,7 @@
     <t>UnoMaster</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 25 сек.</t>
+    <t>3 ч. 07 мин. 25 сек.</t>
   </si>
   <si>
     <t>1057</t>
@@ -9518,7 +9518,7 @@
     <t>Jstwrk</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 7 сек.</t>
+    <t>3 ч. 07 мин. 07 сек.</t>
   </si>
   <si>
     <t>1058</t>
@@ -9527,7 +9527,7 @@
     <t>zapletayka</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 0 сек.</t>
+    <t>3 ч. 07 мин. 00 сек.</t>
   </si>
   <si>
     <t>1059</t>
@@ -9536,7 +9536,7 @@
     <t>master-blaster</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 52 сек.</t>
+    <t>3 ч. 06 мин. 52 сек.</t>
   </si>
   <si>
     <t>1060</t>
@@ -9545,7 +9545,7 @@
     <t>zdanhik</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 36 сек.</t>
+    <t>3 ч. 06 мин. 36 сек.</t>
   </si>
   <si>
     <t>1061</t>
@@ -9554,7 +9554,7 @@
     <t>Raptors</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 33 сек.</t>
+    <t>3 ч. 06 мин. 33 сек.</t>
   </si>
   <si>
     <t>1062</t>
@@ -9563,7 +9563,7 @@
     <t>seeker_</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 20 сек.</t>
+    <t>3 ч. 06 мин. 20 сек.</t>
   </si>
   <si>
     <t>1063</t>
@@ -9572,7 +9572,7 @@
     <t>Макрушин</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 57 сек.</t>
+    <t>3 ч. 05 мин. 57 сек.</t>
   </si>
   <si>
     <t>1064</t>
@@ -9581,7 +9581,7 @@
     <t>Андрей-Мск</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 56 сек.</t>
+    <t>3 ч. 05 мин. 56 сек.</t>
   </si>
   <si>
     <t>1065</t>
@@ -9590,7 +9590,7 @@
     <t>schkiel</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 10 сек.</t>
+    <t>3 ч. 05 мин. 10 сек.</t>
   </si>
   <si>
     <t>1066</t>
@@ -9599,7 +9599,7 @@
     <t>Oxanette</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 9 сек.</t>
+    <t>3 ч. 05 мин. 09 сек.</t>
   </si>
   <si>
     <t>1067</t>
@@ -9608,7 +9608,7 @@
     <t>denver14</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 50 сек.</t>
+    <t>3 ч. 04 мин. 50 сек.</t>
   </si>
   <si>
     <t>1068</t>
@@ -9617,7 +9617,7 @@
     <t>kernal_debuger</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 16 сек.</t>
+    <t>3 ч. 03 мин. 16 сек.</t>
   </si>
   <si>
     <t>1069</t>
@@ -9626,7 +9626,7 @@
     <t>nata-natusechka</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 10 сек.</t>
+    <t>3 ч. 03 мин. 10 сек.</t>
   </si>
   <si>
     <t>1070</t>
@@ -9635,7 +9635,7 @@
     <t>Caterpillar</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 4 сек.</t>
+    <t>3 ч. 03 мин. 04 сек.</t>
   </si>
   <si>
     <t>1071</t>
@@ -9644,7 +9644,7 @@
     <t>Кросафчег</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 43 сек.</t>
+    <t>3 ч. 02 мин. 43 сек.</t>
   </si>
   <si>
     <t>1072</t>
@@ -9653,7 +9653,7 @@
     <t>FreeBooter</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 54 сек.</t>
+    <t>3 ч. 01 мин. 54 сек.</t>
   </si>
   <si>
     <t>1073</t>
@@ -9662,7 +9662,7 @@
     <t>gevis</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 38 сек.</t>
+    <t>3 ч. 01 мин. 38 сек.</t>
   </si>
   <si>
     <t>1074</t>
@@ -9671,7 +9671,7 @@
     <t>nama</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 34 сек.</t>
+    <t>3 ч. 01 мин. 34 сек.</t>
   </si>
   <si>
     <t>1075</t>
@@ -9680,7 +9680,7 @@
     <t>nikita25</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 23 сек.</t>
+    <t>3 ч. 01 мин. 23 сек.</t>
   </si>
   <si>
     <t>1076</t>
@@ -9689,7 +9689,7 @@
     <t>ArtIntel</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 21 сек.</t>
+    <t>3 ч. 01 мин. 21 сек.</t>
   </si>
   <si>
     <t>1077</t>
@@ -9698,7 +9698,7 @@
     <t>unknown_error</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 17 сек.</t>
+    <t>3 ч. 01 мин. 17 сек.</t>
   </si>
   <si>
     <t>1078</t>
@@ -9707,7 +9707,7 @@
     <t>DimaRoot</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 10 сек.</t>
+    <t>3 ч. 01 мин. 10 сек.</t>
   </si>
   <si>
     <t>1079</t>
@@ -9716,7 +9716,7 @@
     <t>tan9va</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 5 сек.</t>
+    <t>3 ч. 01 мин. 05 сек.</t>
   </si>
   <si>
     <t>1080</t>
@@ -9725,7 +9725,7 @@
     <t>jriynik2312</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 11 сек.</t>
+    <t>3 ч. 00 мин. 11 сек.</t>
   </si>
   <si>
     <t>1081–1082</t>
@@ -9803,7 +9803,7 @@
     <t>Клавишник</t>
   </si>
   <si>
-    <t>2 ч. 58 мин. 9 сек.</t>
+    <t>2 ч. 58 мин. 09 сек.</t>
   </si>
   <si>
     <t>1091</t>
@@ -9812,7 +9812,7 @@
     <t>TwinDenis</t>
   </si>
   <si>
-    <t>2 ч. 57 мин. 8 сек.</t>
+    <t>2 ч. 57 мин. 08 сек.</t>
   </si>
   <si>
     <t>1092</t>
@@ -9848,7 +9848,7 @@
     <t>Крам</t>
   </si>
   <si>
-    <t>2 ч. 56 мин. 9 сек.</t>
+    <t>2 ч. 56 мин. 09 сек.</t>
   </si>
   <si>
     <t>1096</t>
@@ -9938,7 +9938,7 @@
     <t>Tarantul</t>
   </si>
   <si>
-    <t>2 ч. 54 мин. 7 сек.</t>
+    <t>2 ч. 54 мин. 07 сек.</t>
   </si>
   <si>
     <t>1106–1107</t>
@@ -9947,7 +9947,7 @@
     <t>rari</t>
   </si>
   <si>
-    <t>2 ч. 54 мин. 1 сек.</t>
+    <t>2 ч. 54 мин. 01 сек.</t>
   </si>
   <si>
     <t>Alex123451</t>
@@ -10079,7 +10079,7 @@
     <t>g0d1o</t>
   </si>
   <si>
-    <t>2 ч. 50 мин. 4 сек.</t>
+    <t>2 ч. 50 мин. 04 сек.</t>
   </si>
   <si>
     <t>1123</t>
@@ -10088,7 +10088,7 @@
     <t>_amateur</t>
   </si>
   <si>
-    <t>2 ч. 50 мин. 1 сек.</t>
+    <t>2 ч. 50 мин. 01 сек.</t>
   </si>
   <si>
     <t>1124</t>
@@ -10178,7 +10178,7 @@
     <t>MyxaMopxD</t>
   </si>
   <si>
-    <t>2 ч. 46 мин. 0 сек.</t>
+    <t>2 ч. 46 мин. 00 сек.</t>
   </si>
   <si>
     <t>1134</t>
@@ -10244,7 +10244,7 @@
     <t>БурячОК</t>
   </si>
   <si>
-    <t>2 ч. 44 мин. 7 сек.</t>
+    <t>2 ч. 44 мин. 07 сек.</t>
   </si>
   <si>
     <t>1142</t>
@@ -10280,7 +10280,7 @@
     <t>_Nicole_</t>
   </si>
   <si>
-    <t>2 ч. 43 мин. 8 сек.</t>
+    <t>2 ч. 43 мин. 08 сек.</t>
   </si>
   <si>
     <t>1146–1147</t>
@@ -10373,7 +10373,7 @@
     <t>savaggge</t>
   </si>
   <si>
-    <t>2 ч. 41 мин. 4 сек.</t>
+    <t>2 ч. 41 мин. 04 сек.</t>
   </si>
   <si>
     <t>1157</t>
@@ -10400,7 +10400,7 @@
     <t>Etoneja</t>
   </si>
   <si>
-    <t>2 ч. 40 мин. 1 сек.</t>
+    <t>2 ч. 40 мин. 01 сек.</t>
   </si>
   <si>
     <t>1160</t>
@@ -10409,7 +10409,7 @@
     <t>xopoc79</t>
   </si>
   <si>
-    <t>2 ч. 40 мин. 0 сек.</t>
+    <t>2 ч. 40 мин. 00 сек.</t>
   </si>
   <si>
     <t>1161</t>
@@ -10472,7 +10472,7 @@
     <t>Adgedan</t>
   </si>
   <si>
-    <t>2 ч. 39 мин. 0 сек.</t>
+    <t>2 ч. 39 мин. 00 сек.</t>
   </si>
   <si>
     <t>1168</t>
@@ -10526,7 +10526,7 @@
     <t>oless19</t>
   </si>
   <si>
-    <t>2 ч. 37 мин. 3 сек.</t>
+    <t>2 ч. 37 мин. 03 сек.</t>
   </si>
   <si>
     <t>1174</t>
@@ -10607,7 +10607,7 @@
     <t>hrenovaya_klava</t>
   </si>
   <si>
-    <t>2 ч. 35 мин. 3 сек.</t>
+    <t>2 ч. 35 мин. 03 сек.</t>
   </si>
   <si>
     <t>1183</t>
@@ -10688,7 +10688,7 @@
     <t>JumpT</t>
   </si>
   <si>
-    <t>2 ч. 33 мин. 0 сек.</t>
+    <t>2 ч. 33 мин. 00 сек.</t>
   </si>
   <si>
     <t>1192</t>
@@ -10715,7 +10715,7 @@
     <t>Гришка_конокрад</t>
   </si>
   <si>
-    <t>2 ч. 32 мин. 6 сек.</t>
+    <t>2 ч. 32 мин. 06 сек.</t>
   </si>
   <si>
     <t>1195</t>
@@ -10724,7 +10724,7 @@
     <t>lana-banana</t>
   </si>
   <si>
-    <t>2 ч. 32 мин. 3 сек.</t>
+    <t>2 ч. 32 мин. 03 сек.</t>
   </si>
   <si>
     <t>1196</t>
@@ -10778,7 +10778,7 @@
     <t>ReadySteadyGo_</t>
   </si>
   <si>
-    <t>2 ч. 30 мин. 1 сек.</t>
+    <t>2 ч. 30 мин. 01 сек.</t>
   </si>
   <si>
     <t>1202</t>
@@ -10835,7 +10835,7 @@
     <t>-Vovik-</t>
   </si>
   <si>
-    <t>2 ч. 29 мин. 4 сек.</t>
+    <t>2 ч. 29 мин. 04 сек.</t>
   </si>
   <si>
     <t>1209–1210</t>
@@ -10844,7 +10844,7 @@
     <t>AIastoriaI</t>
   </si>
   <si>
-    <t>2 ч. 29 мин. 0 сек.</t>
+    <t>2 ч. 29 мин. 00 сек.</t>
   </si>
   <si>
     <t>lornashore</t>
@@ -10937,7 +10937,7 @@
     <t>Pechalnik-U</t>
   </si>
   <si>
-    <t>2 ч. 26 мин. 7 сек.</t>
+    <t>2 ч. 26 мин. 07 сек.</t>
   </si>
   <si>
     <t>1221</t>
@@ -10973,7 +10973,7 @@
     <t>петрови4</t>
   </si>
   <si>
-    <t>2 ч. 25 мин. 8 сек.</t>
+    <t>2 ч. 25 мин. 08 сек.</t>
   </si>
   <si>
     <t>1225</t>
@@ -10982,7 +10982,7 @@
     <t>Bujhm99</t>
   </si>
   <si>
-    <t>2 ч. 25 мин. 3 сек.</t>
+    <t>2 ч. 25 мин. 03 сек.</t>
   </si>
   <si>
     <t>1226–1227</t>
@@ -11048,7 +11048,7 @@
     <t>lexx2111</t>
   </si>
   <si>
-    <t>2 ч. 24 мин. 3 сек.</t>
+    <t>2 ч. 24 мин. 03 сек.</t>
   </si>
   <si>
     <t>1234</t>
@@ -11057,7 +11057,7 @@
     <t>denchi</t>
   </si>
   <si>
-    <t>2 ч. 24 мин. 0 сек.</t>
+    <t>2 ч. 24 мин. 00 сек.</t>
   </si>
   <si>
     <t>1235</t>
@@ -11102,7 +11102,7 @@
     <t>4ick</t>
   </si>
   <si>
-    <t>2 ч. 23 мин. 6 сек.</t>
+    <t>2 ч. 23 мин. 06 сек.</t>
   </si>
   <si>
     <t>1240</t>
@@ -11111,7 +11111,7 @@
     <t>GYRTOVOY</t>
   </si>
   <si>
-    <t>2 ч. 23 мин. 5 сек.</t>
+    <t>2 ч. 23 мин. 05 сек.</t>
   </si>
   <si>
     <t>1241</t>
@@ -11165,7 +11165,7 @@
     <t>Суоно</t>
   </si>
   <si>
-    <t>2 ч. 22 мин. 9 сек.</t>
+    <t>2 ч. 22 мин. 09 сек.</t>
   </si>
   <si>
     <t>1247</t>
@@ -11228,7 +11228,7 @@
     <t>Hellki</t>
   </si>
   <si>
-    <t>2 ч. 20 мин. 2 сек.</t>
+    <t>2 ч. 20 мин. 02 сек.</t>
   </si>
   <si>
     <t>1254</t>
@@ -11312,7 +11312,7 @@
     <t>Milker</t>
   </si>
   <si>
-    <t>2 ч. 18 мин. 2 сек.</t>
+    <t>2 ч. 18 мин. 02 сек.</t>
   </si>
   <si>
     <t>1264</t>
@@ -11456,7 +11456,7 @@
     <t>logickiller</t>
   </si>
   <si>
-    <t>2 ч. 15 мин. 7 сек.</t>
+    <t>2 ч. 15 мин. 07 сек.</t>
   </si>
   <si>
     <t>1280</t>
@@ -11624,7 +11624,7 @@
     <t>Кусака</t>
   </si>
   <si>
-    <t>2 ч. 11 мин. 3 сек.</t>
+    <t>2 ч. 11 мин. 03 сек.</t>
   </si>
   <si>
     <t>1300–1301</t>
@@ -11654,7 +11654,7 @@
     <t>Порядок</t>
   </si>
   <si>
-    <t>2 ч. 10 мин. 6 сек.</t>
+    <t>2 ч. 10 мин. 06 сек.</t>
   </si>
   <si>
     <t>1304</t>
@@ -11663,7 +11663,7 @@
     <t>bonin</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 57 сек.</t>
+    <t>2 ч. 09 мин. 57 сек.</t>
   </si>
   <si>
     <t>1305</t>
@@ -11672,7 +11672,7 @@
     <t>kirson45</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 51 сек.</t>
+    <t>2 ч. 09 мин. 51 сек.</t>
   </si>
   <si>
     <t>1306</t>
@@ -11681,7 +11681,7 @@
     <t>Iskariot</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 43 сек.</t>
+    <t>2 ч. 09 мин. 43 сек.</t>
   </si>
   <si>
     <t>1307</t>
@@ -11690,7 +11690,7 @@
     <t>Kyler33</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 38 сек.</t>
+    <t>2 ч. 09 мин. 38 сек.</t>
   </si>
   <si>
     <t>1308</t>
@@ -11699,7 +11699,7 @@
     <t>belkaoboroten</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 23 сек.</t>
+    <t>2 ч. 09 мин. 23 сек.</t>
   </si>
   <si>
     <t>1309</t>
@@ -11708,7 +11708,7 @@
     <t>Sej</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 5 сек.</t>
+    <t>2 ч. 09 мин. 05 сек.</t>
   </si>
   <si>
     <t>1310</t>
@@ -11717,7 +11717,7 @@
     <t>DaNeeRon</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 40 сек.</t>
+    <t>2 ч. 08 мин. 40 сек.</t>
   </si>
   <si>
     <t>1311</t>
@@ -11726,7 +11726,7 @@
     <t>Топтыгин</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 29 сек.</t>
+    <t>2 ч. 08 мин. 29 сек.</t>
   </si>
   <si>
     <t>1312</t>
@@ -11735,7 +11735,7 @@
     <t>ryx</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 25 сек.</t>
+    <t>2 ч. 08 мин. 25 сек.</t>
   </si>
   <si>
     <t>1313</t>
@@ -11744,7 +11744,7 @@
     <t>l_y_n_x</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 20 сек.</t>
+    <t>2 ч. 08 мин. 20 сек.</t>
   </si>
   <si>
     <t>1314</t>
@@ -11753,7 +11753,7 @@
     <t>DM-x</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 9 сек.</t>
+    <t>2 ч. 08 мин. 09 сек.</t>
   </si>
   <si>
     <t>1315</t>
@@ -11762,7 +11762,7 @@
     <t>Likuku</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 2 сек.</t>
+    <t>2 ч. 08 мин. 02 сек.</t>
   </si>
   <si>
     <t>1316</t>
@@ -11771,7 +11771,7 @@
     <t>espresso</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 59 сек.</t>
+    <t>2 ч. 07 мин. 59 сек.</t>
   </si>
   <si>
     <t>1317</t>
@@ -11780,7 +11780,7 @@
     <t>karabashka</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 54 сек.</t>
+    <t>2 ч. 07 мин. 54 сек.</t>
   </si>
   <si>
     <t>1318–1319</t>
@@ -11789,7 +11789,7 @@
     <t>TibiNu</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 30 сек.</t>
+    <t>2 ч. 07 мин. 30 сек.</t>
   </si>
   <si>
     <t>MightySan</t>
@@ -11801,7 +11801,7 @@
     <t>Gil_ru</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 21 сек.</t>
+    <t>2 ч. 07 мин. 21 сек.</t>
   </si>
   <si>
     <t>1321–1322</t>
@@ -11810,7 +11810,7 @@
     <t>smertsgranatoi</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 0 сек.</t>
+    <t>2 ч. 07 мин. 00 сек.</t>
   </si>
   <si>
     <t>Ллисса</t>
@@ -11822,7 +11822,7 @@
     <t>hoha-</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 58 сек.</t>
+    <t>2 ч. 06 мин. 58 сек.</t>
   </si>
   <si>
     <t>1324</t>
@@ -11831,7 +11831,7 @@
     <t>фио</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 50 сек.</t>
+    <t>2 ч. 06 мин. 50 сек.</t>
   </si>
   <si>
     <t>1325</t>
@@ -11840,7 +11840,7 @@
     <t>Alekeks</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 46 сек.</t>
+    <t>2 ч. 06 мин. 46 сек.</t>
   </si>
   <si>
     <t>1326</t>
@@ -11849,7 +11849,7 @@
     <t>RombOs</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 36 сек.</t>
+    <t>2 ч. 06 мин. 36 сек.</t>
   </si>
   <si>
     <t>1327</t>
@@ -11858,7 +11858,7 @@
     <t>cal-lek</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 31 сек.</t>
+    <t>2 ч. 06 мин. 31 сек.</t>
   </si>
   <si>
     <t>1328–1329</t>
@@ -11867,7 +11867,7 @@
     <t>TigArt</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 16 сек.</t>
+    <t>2 ч. 06 мин. 16 сек.</t>
   </si>
   <si>
     <t>lazy</t>
@@ -11879,7 +11879,7 @@
     <t>Journeyman</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 10 сек.</t>
+    <t>2 ч. 06 мин. 10 сек.</t>
   </si>
   <si>
     <t>1331</t>
@@ -11888,7 +11888,7 @@
     <t>Капитанки</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 9 сек.</t>
+    <t>2 ч. 06 мин. 09 сек.</t>
   </si>
   <si>
     <t>1332</t>
@@ -11897,7 +11897,7 @@
     <t>Collider</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 3 сек.</t>
+    <t>2 ч. 06 мин. 03 сек.</t>
   </si>
   <si>
     <t>1333</t>
@@ -11906,7 +11906,7 @@
     <t>V_Alexey</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 19 сек.</t>
+    <t>2 ч. 05 мин. 19 сек.</t>
   </si>
   <si>
     <t>1334</t>
@@ -11915,7 +11915,7 @@
     <t>bolgarinpavel</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 17 сек.</t>
+    <t>2 ч. 05 мин. 17 сек.</t>
   </si>
   <si>
     <t>1335</t>
@@ -11924,7 +11924,7 @@
     <t>Лелюгри</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 8 сек.</t>
+    <t>2 ч. 05 мин. 08 сек.</t>
   </si>
   <si>
     <t>1336</t>
@@ -11933,7 +11933,7 @@
     <t>vega-s</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 2 сек.</t>
+    <t>2 ч. 05 мин. 02 сек.</t>
   </si>
   <si>
     <t>1337</t>
@@ -11942,7 +11942,7 @@
     <t>Garmonica</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 38 сек.</t>
+    <t>2 ч. 04 мин. 38 сек.</t>
   </si>
   <si>
     <t>1338</t>
@@ -11951,7 +11951,7 @@
     <t>VSH</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 36 сек.</t>
+    <t>2 ч. 04 мин. 36 сек.</t>
   </si>
   <si>
     <t>1339</t>
@@ -11960,7 +11960,7 @@
     <t>kostyagordyaev</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 10 сек.</t>
+    <t>2 ч. 04 мин. 10 сек.</t>
   </si>
   <si>
     <t>1340–1341</t>
@@ -11969,7 +11969,7 @@
     <t>Just_so_Lex</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 5 сек.</t>
+    <t>2 ч. 04 мин. 05 сек.</t>
   </si>
   <si>
     <t>Bax</t>
@@ -11981,7 +11981,7 @@
     <t>Мим</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 59 сек.</t>
+    <t>2 ч. 03 мин. 59 сек.</t>
   </si>
   <si>
     <t>1343</t>
@@ -11990,7 +11990,7 @@
     <t>IVIVI</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 52 сек.</t>
+    <t>2 ч. 03 мин. 52 сек.</t>
   </si>
   <si>
     <t>1344</t>
@@ -11999,7 +11999,7 @@
     <t>Meteora277</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 22 сек.</t>
+    <t>2 ч. 03 мин. 22 сек.</t>
   </si>
   <si>
     <t>1345</t>
@@ -12008,7 +12008,7 @@
     <t>benighted</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 19 сек.</t>
+    <t>2 ч. 03 мин. 19 сек.</t>
   </si>
   <si>
     <t>1346</t>
@@ -12017,7 +12017,7 @@
     <t>ksundel</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 16 сек.</t>
+    <t>2 ч. 03 мин. 16 сек.</t>
   </si>
   <si>
     <t>1347</t>
@@ -12026,7 +12026,7 @@
     <t>madar</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 12 сек.</t>
+    <t>2 ч. 03 мин. 12 сек.</t>
   </si>
   <si>
     <t>1348</t>
@@ -12035,7 +12035,7 @@
     <t>selunik</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 56 сек.</t>
+    <t>2 ч. 02 мин. 56 сек.</t>
   </si>
   <si>
     <t>1349</t>
@@ -12044,7 +12044,7 @@
     <t>Skillmic</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 49 сек.</t>
+    <t>2 ч. 02 мин. 49 сек.</t>
   </si>
   <si>
     <t>1350</t>
@@ -12053,7 +12053,7 @@
     <t>notebukman</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 43 сек.</t>
+    <t>2 ч. 02 мин. 43 сек.</t>
   </si>
   <si>
     <t>1351–1352</t>
@@ -12062,7 +12062,7 @@
     <t>КлавоЛом</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 42 сек.</t>
+    <t>2 ч. 02 мин. 42 сек.</t>
   </si>
   <si>
     <t>malencaya</t>
@@ -12074,7 +12074,7 @@
     <t>foreword92</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 8 сек.</t>
+    <t>2 ч. 02 мин. 08 сек.</t>
   </si>
   <si>
     <t>1354</t>
@@ -12083,7 +12083,7 @@
     <t>SilverNeko</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 4 сек.</t>
+    <t>2 ч. 02 мин. 04 сек.</t>
   </si>
   <si>
     <t>1355</t>
@@ -12092,7 +12092,7 @@
     <t>mantilet</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 59 сек.</t>
+    <t>2 ч. 01 мин. 59 сек.</t>
   </si>
   <si>
     <t>1356</t>
@@ -12101,7 +12101,7 @@
     <t>novkostya</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 56 сек.</t>
+    <t>2 ч. 01 мин. 56 сек.</t>
   </si>
   <si>
     <t>1357</t>
@@ -12110,7 +12110,7 @@
     <t>Massik</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 51 сек.</t>
+    <t>2 ч. 01 мин. 51 сек.</t>
   </si>
   <si>
     <t>1358–1359</t>
@@ -12119,7 +12119,7 @@
     <t>ckandy</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 46 сек.</t>
+    <t>2 ч. 01 мин. 46 сек.</t>
   </si>
   <si>
     <t>DcDimon</t>
@@ -12131,7 +12131,7 @@
     <t>Pastor_nak</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 36 сек.</t>
+    <t>2 ч. 01 мин. 36 сек.</t>
   </si>
   <si>
     <t>1361</t>
@@ -12140,7 +12140,7 @@
     <t>Lunaries</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 26 сек.</t>
+    <t>2 ч. 01 мин. 26 сек.</t>
   </si>
   <si>
     <t>1362</t>
@@ -12149,7 +12149,7 @@
     <t>__мутя__</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 22 сек.</t>
+    <t>2 ч. 01 мин. 22 сек.</t>
   </si>
   <si>
     <t>1363</t>
@@ -12158,7 +12158,7 @@
     <t>nickliverpool</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 21 сек.</t>
+    <t>2 ч. 01 мин. 21 сек.</t>
   </si>
   <si>
     <t>1364</t>
@@ -12167,7 +12167,7 @@
     <t>Sketerok777</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 9 сек.</t>
+    <t>2 ч. 01 мин. 09 сек.</t>
   </si>
   <si>
     <t>1365</t>
@@ -12176,7 +12176,7 @@
     <t>Бросай_курить</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 40 сек.</t>
+    <t>2 ч. 00 мин. 40 сек.</t>
   </si>
   <si>
     <t>1366–1367</t>
@@ -12185,7 +12185,7 @@
     <t>RamireZ007</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 39 сек.</t>
+    <t>2 ч. 00 мин. 39 сек.</t>
   </si>
   <si>
     <t>map82_top</t>
@@ -12197,7 +12197,7 @@
     <t>Коретай</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 9 сек.</t>
+    <t>2 ч. 00 мин. 09 сек.</t>
   </si>
   <si>
     <t>1369</t>
@@ -12215,7 +12215,7 @@
     <t>Arachne</t>
   </si>
   <si>
-    <t>1 ч. 59 мин. 9 сек.</t>
+    <t>1 ч. 59 мин. 09 сек.</t>
   </si>
   <si>
     <t>TwinDima</t>
@@ -12227,7 +12227,7 @@
     <t>xaxuda</t>
   </si>
   <si>
-    <t>1 ч. 59 мин. 8 сек.</t>
+    <t>1 ч. 59 мин. 08 сек.</t>
   </si>
   <si>
     <t>nezemlyanin</t>
@@ -12239,7 +12239,7 @@
     <t>graticule</t>
   </si>
   <si>
-    <t>1 ч. 59 мин. 4 сек.</t>
+    <t>1 ч. 59 мин. 04 сек.</t>
   </si>
   <si>
     <t>1375</t>
@@ -12410,7 +12410,7 @@
     <t>kibico</t>
   </si>
   <si>
-    <t>1 ч. 56 мин. 7 сек.</t>
+    <t>1 ч. 56 мин. 07 сек.</t>
   </si>
   <si>
     <t>1394</t>
@@ -12419,7 +12419,7 @@
     <t>ASplayer9119</t>
   </si>
   <si>
-    <t>1 ч. 56 мин. 4 сек.</t>
+    <t>1 ч. 56 мин. 04 сек.</t>
   </si>
   <si>
     <t>1395</t>
@@ -12455,7 +12455,7 @@
     <t>Pupupuprum</t>
   </si>
   <si>
-    <t>1 ч. 55 мин. 9 сек.</t>
+    <t>1 ч. 55 мин. 09 сек.</t>
   </si>
   <si>
     <t>1399</t>
@@ -12464,7 +12464,7 @@
     <t>liuluil</t>
   </si>
   <si>
-    <t>1 ч. 55 мин. 8 сек.</t>
+    <t>1 ч. 55 мин. 08 сек.</t>
   </si>
   <si>
     <t>1400</t>
@@ -12473,7 +12473,7 @@
     <t>GGHFGL</t>
   </si>
   <si>
-    <t>1 ч. 55 мин. 2 сек.</t>
+    <t>1 ч. 55 мин. 02 сек.</t>
   </si>
   <si>
     <t>1401</t>
@@ -12557,7 +12557,7 @@
     <t>Skiron</t>
   </si>
   <si>
-    <t>1 ч. 54 мин. 5 сек.</t>
+    <t>1 ч. 54 мин. 05 сек.</t>
   </si>
   <si>
     <t>Dialex</t>
@@ -12569,7 +12569,7 @@
     <t>доползу</t>
   </si>
   <si>
-    <t>1 ч. 54 мин. 2 сек.</t>
+    <t>1 ч. 54 мин. 02 сек.</t>
   </si>
   <si>
     <t>1413</t>
@@ -12596,7 +12596,7 @@
     <t>mmque</t>
   </si>
   <si>
-    <t>1 ч. 53 мин. 8 сек.</t>
+    <t>1 ч. 53 мин. 08 сек.</t>
   </si>
   <si>
     <t>1416</t>
@@ -12680,7 +12680,7 @@
     <t>Dimanus</t>
   </si>
   <si>
-    <t>1 ч. 51 мин. 7 сек.</t>
+    <t>1 ч. 51 мин. 07 сек.</t>
   </si>
   <si>
     <t>1426</t>
@@ -12797,7 +12797,7 @@
     <t>ElaS</t>
   </si>
   <si>
-    <t>1 ч. 49 мин. 8 сек.</t>
+    <t>1 ч. 49 мин. 08 сек.</t>
   </si>
   <si>
     <t>1440</t>
@@ -12842,7 +12842,7 @@
     <t>ant1k</t>
   </si>
   <si>
-    <t>1 ч. 48 мин. 7 сек.</t>
+    <t>1 ч. 48 мин. 07 сек.</t>
   </si>
   <si>
     <t>1445</t>
@@ -12923,7 +12923,7 @@
     <t>klap</t>
   </si>
   <si>
-    <t>1 ч. 47 мин. 2 сек.</t>
+    <t>1 ч. 47 мин. 02 сек.</t>
   </si>
   <si>
     <t>1454</t>
@@ -12986,7 +12986,7 @@
     <t>fps70</t>
   </si>
   <si>
-    <t>1 ч. 46 мин. 4 сек.</t>
+    <t>1 ч. 46 мин. 04 сек.</t>
   </si>
   <si>
     <t>Sergunya87</t>
@@ -12998,7 +12998,7 @@
     <t>Doode</t>
   </si>
   <si>
-    <t>1 ч. 46 мин. 0 сек.</t>
+    <t>1 ч. 46 мин. 00 сек.</t>
   </si>
   <si>
     <t>1463</t>
@@ -13061,7 +13061,7 @@
     <t>Kisk</t>
   </si>
   <si>
-    <t>1 ч. 45 мин. 9 сек.</t>
+    <t>1 ч. 45 мин. 09 сек.</t>
   </si>
   <si>
     <t>1470</t>
@@ -13070,7 +13070,7 @@
     <t>Дядя_Грга</t>
   </si>
   <si>
-    <t>1 ч. 45 мин. 8 сек.</t>
+    <t>1 ч. 45 мин. 08 сек.</t>
   </si>
   <si>
     <t>1471</t>
@@ -13199,7 +13199,7 @@
     <t>SemRunner</t>
   </si>
   <si>
-    <t>1 ч. 43 мин. 5 сек.</t>
+    <t>1 ч. 43 мин. 05 сек.</t>
   </si>
   <si>
     <t>1486</t>
@@ -13208,7 +13208,7 @@
     <t>Kharinsky</t>
   </si>
   <si>
-    <t>1 ч. 43 мин. 4 сек.</t>
+    <t>1 ч. 43 мин. 04 сек.</t>
   </si>
   <si>
     <t>1487</t>
@@ -13361,7 +13361,7 @@
     <t>Классик</t>
   </si>
   <si>
-    <t>1 ч. 41 мин. 4 сек.</t>
+    <t>1 ч. 41 мин. 04 сек.</t>
   </si>
   <si>
     <t>1504</t>
@@ -13433,7 +13433,7 @@
     <t>adocs</t>
   </si>
   <si>
-    <t>1 ч. 40 мин. 2 сек.</t>
+    <t>1 ч. 40 мин. 02 сек.</t>
   </si>
   <si>
     <t>1512</t>
@@ -13442,7 +13442,7 @@
     <t>19rus</t>
   </si>
   <si>
-    <t>1 ч. 40 мин. 1 сек.</t>
+    <t>1 ч. 40 мин. 01 сек.</t>
   </si>
   <si>
     <t>1513</t>
@@ -13508,7 +13508,7 @@
     <t>begemot98</t>
   </si>
   <si>
-    <t>1 ч. 39 мин. 6 сек.</t>
+    <t>1 ч. 39 мин. 06 сек.</t>
   </si>
   <si>
     <t>1521</t>
@@ -13580,7 +13580,7 @@
     <t>ulitkamix</t>
   </si>
   <si>
-    <t>1 ч. 38 мин. 1 сек.</t>
+    <t>1 ч. 38 мин. 01 сек.</t>
   </si>
   <si>
     <t>1529</t>
@@ -13664,7 +13664,7 @@
     <t>lector125</t>
   </si>
   <si>
-    <t>1 ч. 37 мин. 1 сек.</t>
+    <t>1 ч. 37 мин. 01 сек.</t>
   </si>
   <si>
     <t>1539</t>
@@ -13709,7 +13709,7 @@
     <t>damir27</t>
   </si>
   <si>
-    <t>1 ч. 36 мин. 6 сек.</t>
+    <t>1 ч. 36 мин. 06 сек.</t>
   </si>
   <si>
     <t>1544</t>
@@ -13736,7 +13736,7 @@
     <t>Aletca</t>
   </si>
   <si>
-    <t>1 ч. 35 мин. 1 сек.</t>
+    <t>1 ч. 35 мин. 01 сек.</t>
   </si>
   <si>
     <t>1547–1549</t>
@@ -13895,7 +13895,7 @@
     <t>дерик</t>
   </si>
   <si>
-    <t>1 ч. 33 мин. 9 сек.</t>
+    <t>1 ч. 33 мин. 09 сек.</t>
   </si>
   <si>
     <t>1566</t>
@@ -13904,7 +13904,7 @@
     <t>smol67</t>
   </si>
   <si>
-    <t>1 ч. 33 мин. 7 сек.</t>
+    <t>1 ч. 33 мин. 07 сек.</t>
   </si>
   <si>
     <t>1567</t>
@@ -13988,7 +13988,7 @@
     <t>уфхцщ</t>
   </si>
   <si>
-    <t>1 ч. 32 мин. 8 сек.</t>
+    <t>1 ч. 32 мин. 08 сек.</t>
   </si>
   <si>
     <t>1577</t>
@@ -14141,7 +14141,7 @@
     <t>Dzihiko</t>
   </si>
   <si>
-    <t>1 ч. 29 мин. 2 сек.</t>
+    <t>1 ч. 29 мин. 02 сек.</t>
   </si>
   <si>
     <t>1596</t>
@@ -14168,7 +14168,7 @@
     <t>Aleksandeer</t>
   </si>
   <si>
-    <t>1 ч. 28 мин. 4 сек.</t>
+    <t>1 ч. 28 мин. 04 сек.</t>
   </si>
   <si>
     <t>1599</t>
@@ -14249,7 +14249,7 @@
     <t>Ishka</t>
   </si>
   <si>
-    <t>1 ч. 27 мин. 4 сек.</t>
+    <t>1 ч. 27 мин. 04 сек.</t>
   </si>
   <si>
     <t>1608</t>
@@ -14303,7 +14303,7 @@
     <t>_-Brain-_</t>
   </si>
   <si>
-    <t>1 ч. 26 мин. 5 сек.</t>
+    <t>1 ч. 26 мин. 05 сек.</t>
   </si>
   <si>
     <t>1614</t>
@@ -14375,7 +14375,7 @@
     <t>MirZz</t>
   </si>
   <si>
-    <t>1 ч. 25 мин. 7 сек.</t>
+    <t>1 ч. 25 мин. 07 сек.</t>
   </si>
   <si>
     <t>1622</t>
@@ -14384,7 +14384,7 @@
     <t>kitekatya</t>
   </si>
   <si>
-    <t>1 ч. 25 мин. 5 сек.</t>
+    <t>1 ч. 25 мин. 05 сек.</t>
   </si>
   <si>
     <t>1623</t>
@@ -14393,7 +14393,7 @@
     <t>Грубиян</t>
   </si>
   <si>
-    <t>1 ч. 25 мин. 4 сек.</t>
+    <t>1 ч. 25 мин. 04 сек.</t>
   </si>
   <si>
     <t>1624</t>
@@ -14465,7 +14465,7 @@
     <t>GhostInside</t>
   </si>
   <si>
-    <t>1 ч. 24 мин. 7 сек.</t>
+    <t>1 ч. 24 мин. 07 сек.</t>
   </si>
   <si>
     <t>1632</t>
@@ -14474,7 +14474,7 @@
     <t>ajrcbp</t>
   </si>
   <si>
-    <t>1 ч. 24 мин. 4 сек.</t>
+    <t>1 ч. 24 мин. 04 сек.</t>
   </si>
   <si>
     <t>1633</t>
@@ -14519,7 +14519,7 @@
     <t>n1Riper</t>
   </si>
   <si>
-    <t>1 ч. 23 мин. 8 сек.</t>
+    <t>1 ч. 23 мин. 08 сек.</t>
   </si>
   <si>
     <t>1638</t>
@@ -14585,7 +14585,7 @@
     <t>Papa_Wolf</t>
   </si>
   <si>
-    <t>1 ч. 22 мин. 6 сек.</t>
+    <t>1 ч. 22 мин. 06 сек.</t>
   </si>
   <si>
     <t>1646</t>
@@ -14594,7 +14594,7 @@
     <t>_aggel</t>
   </si>
   <si>
-    <t>1 ч. 22 мин. 5 сек.</t>
+    <t>1 ч. 22 мин. 05 сек.</t>
   </si>
   <si>
     <t>1647</t>
@@ -14603,7 +14603,7 @@
     <t>JPM</t>
   </si>
   <si>
-    <t>1 ч. 22 мин. 1 сек.</t>
+    <t>1 ч. 22 мин. 01 сек.</t>
   </si>
   <si>
     <t>1648</t>
@@ -14612,7 +14612,7 @@
     <t>Grinn</t>
   </si>
   <si>
-    <t>1 ч. 22 мин. 0 сек.</t>
+    <t>1 ч. 22 мин. 00 сек.</t>
   </si>
   <si>
     <t>1649</t>
@@ -14693,7 +14693,7 @@
     <t>sklippy</t>
   </si>
   <si>
-    <t>1 ч. 21 мин. 7 сек.</t>
+    <t>1 ч. 21 мин. 07 сек.</t>
   </si>
   <si>
     <t>1658</t>
@@ -14759,7 +14759,7 @@
     <t>Питер</t>
   </si>
   <si>
-    <t>1 ч. 20 мин. 0 сек.</t>
+    <t>1 ч. 20 мин. 00 сек.</t>
   </si>
   <si>
     <t>1666</t>
@@ -14795,7 +14795,7 @@
     <t>sanich123</t>
   </si>
   <si>
-    <t>1 ч. 19 мин. 6 сек.</t>
+    <t>1 ч. 19 мин. 06 сек.</t>
   </si>
   <si>
     <t>1670</t>
@@ -14804,7 +14804,7 @@
     <t>robert_debauch</t>
   </si>
   <si>
-    <t>1 ч. 19 мин. 1 сек.</t>
+    <t>1 ч. 19 мин. 01 сек.</t>
   </si>
   <si>
     <t>1671</t>
@@ -14813,7 +14813,7 @@
     <t>tryme</t>
   </si>
   <si>
-    <t>1 ч. 19 мин. 0 сек.</t>
+    <t>1 ч. 19 мин. 00 сек.</t>
   </si>
   <si>
     <t>1672</t>
@@ -14867,7 +14867,7 @@
     <t>dzheo_liliya</t>
   </si>
   <si>
-    <t>1 ч. 18 мин. 5 сек.</t>
+    <t>1 ч. 18 мин. 05 сек.</t>
   </si>
   <si>
     <t>1678</t>
@@ -14876,7 +14876,7 @@
     <t>nat67</t>
   </si>
   <si>
-    <t>1 ч. 18 мин. 3 сек.</t>
+    <t>1 ч. 18 мин. 03 сек.</t>
   </si>
   <si>
     <t>1679</t>
@@ -14939,7 +14939,7 @@
     <t>lovertone</t>
   </si>
   <si>
-    <t>1 ч. 16 мин. 8 сек.</t>
+    <t>1 ч. 16 мин. 08 сек.</t>
   </si>
   <si>
     <t>1686</t>
@@ -14993,7 +14993,7 @@
     <t>su-35</t>
   </si>
   <si>
-    <t>1 ч. 15 мин. 6 сек.</t>
+    <t>1 ч. 15 мин. 06 сек.</t>
   </si>
   <si>
     <t>1692</t>
@@ -15002,7 +15002,7 @@
     <t>RealWizZard</t>
   </si>
   <si>
-    <t>1 ч. 15 мин. 3 сек.</t>
+    <t>1 ч. 15 мин. 03 сек.</t>
   </si>
   <si>
     <t>1693</t>
@@ -15011,7 +15011,7 @@
     <t>spawn_once</t>
   </si>
   <si>
-    <t>1 ч. 15 мин. 0 сек.</t>
+    <t>1 ч. 15 мин. 00 сек.</t>
   </si>
   <si>
     <t>1694</t>
@@ -15020,7 +15020,7 @@
     <t>Тираэль</t>
   </si>
   <si>
-    <t>1 ч. 14 мин. 4 сек.</t>
+    <t>1 ч. 14 мин. 04 сек.</t>
   </si>
   <si>
     <t>1695</t>
@@ -15029,7 +15029,7 @@
     <t>Пробудитесь_же</t>
   </si>
   <si>
-    <t>1 ч. 14 мин. 3 сек.</t>
+    <t>1 ч. 14 мин. 03 сек.</t>
   </si>
   <si>
     <t>1696</t>
@@ -15038,7 +15038,7 @@
     <t>Перфил</t>
   </si>
   <si>
-    <t>1 ч. 14 мин. 1 сек.</t>
+    <t>1 ч. 14 мин. 01 сек.</t>
   </si>
   <si>
     <t>1697</t>
@@ -15083,7 +15083,7 @@
     <t>dysphemia</t>
   </si>
   <si>
-    <t>1 ч. 13 мин. 7 сек.</t>
+    <t>1 ч. 13 мин. 07 сек.</t>
   </si>
   <si>
     <t>1702</t>
@@ -15146,7 +15146,7 @@
     <t>Silly_Sergio</t>
   </si>
   <si>
-    <t>1 ч. 12 мин. 6 сек.</t>
+    <t>1 ч. 12 мин. 06 сек.</t>
   </si>
   <si>
     <t>1709</t>
@@ -15182,7 +15182,7 @@
     <t>violetlux_</t>
   </si>
   <si>
-    <t>1 ч. 11 мин. 0 сек.</t>
+    <t>1 ч. 11 мин. 00 сек.</t>
   </si>
   <si>
     <t>1713</t>
@@ -15254,7 +15254,7 @@
     <t>k_e_n_t_a_v_r</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 45 сек.</t>
+    <t>1 ч. 09 мин. 45 сек.</t>
   </si>
   <si>
     <t>1721</t>
@@ -15263,7 +15263,7 @@
     <t>Chuchpek</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 29 сек.</t>
+    <t>1 ч. 08 мин. 29 сек.</t>
   </si>
   <si>
     <t>1722</t>
@@ -15272,7 +15272,7 @@
     <t>Хамелеон</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 57 сек.</t>
+    <t>1 ч. 07 мин. 57 сек.</t>
   </si>
   <si>
     <t>1723</t>
@@ -15281,7 +15281,7 @@
     <t>SADPONY</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 51 сек.</t>
+    <t>1 ч. 07 мин. 51 сек.</t>
   </si>
   <si>
     <t>1724</t>
@@ -15290,7 +15290,7 @@
     <t>ness1</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 33 сек.</t>
+    <t>1 ч. 07 мин. 33 сек.</t>
   </si>
   <si>
     <t>1725</t>
@@ -15299,7 +15299,7 @@
     <t>Enrage</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 29 сек.</t>
+    <t>1 ч. 07 мин. 29 сек.</t>
   </si>
   <si>
     <t>1726</t>
@@ -15308,7 +15308,7 @@
     <t>Андрейка</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 53 сек.</t>
+    <t>1 ч. 06 мин. 53 сек.</t>
   </si>
   <si>
     <t>1727</t>
@@ -15317,7 +15317,7 @@
     <t>не_супермен</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 40 сек.</t>
+    <t>1 ч. 06 мин. 40 сек.</t>
   </si>
   <si>
     <t>1728</t>
@@ -15326,7 +15326,7 @@
     <t>Divin1ty</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 38 сек.</t>
+    <t>1 ч. 06 мин. 38 сек.</t>
   </si>
   <si>
     <t>1729</t>
@@ -15335,7 +15335,7 @@
     <t>meganoob</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 39 сек.</t>
+    <t>1 ч. 05 мин. 39 сек.</t>
   </si>
   <si>
     <t>1730</t>
@@ -15344,7 +15344,7 @@
     <t>Seyaua</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 10 сек.</t>
+    <t>1 ч. 05 мин. 10 сек.</t>
   </si>
   <si>
     <t>1731</t>
@@ -15353,7 +15353,7 @@
     <t>qwAlxi</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 50 сек.</t>
+    <t>1 ч. 03 мин. 50 сек.</t>
   </si>
   <si>
     <t>1732</t>
@@ -15362,7 +15362,7 @@
     <t>Фолко</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 40 сек.</t>
+    <t>1 ч. 03 мин. 40 сек.</t>
   </si>
   <si>
     <t>1733</t>
@@ -15371,7 +15371,7 @@
     <t>Мятный_заход</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 21 сек.</t>
+    <t>1 ч. 03 мин. 21 сек.</t>
   </si>
   <si>
     <t>1734</t>
@@ -15380,7 +15380,7 @@
     <t>Lien</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 7 сек.</t>
+    <t>1 ч. 03 мин. 07 сек.</t>
   </si>
   <si>
     <t>1735–1736</t>
@@ -15389,7 +15389,7 @@
     <t>Anaxagoras</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 58 сек.</t>
+    <t>1 ч. 01 мин. 58 сек.</t>
   </si>
   <si>
     <t>jamm</t>
@@ -15401,7 +15401,7 @@
     <t>salser_not</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 54 сек.</t>
+    <t>1 ч. 01 мин. 54 сек.</t>
   </si>
   <si>
     <t>1738</t>
@@ -15410,7 +15410,7 @@
     <t>Торописька</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 53 сек.</t>
+    <t>1 ч. 01 мин. 53 сек.</t>
   </si>
   <si>
     <t>1739</t>
@@ -15419,7 +15419,7 @@
     <t>r0w</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 49 сек.</t>
+    <t>1 ч. 01 мин. 49 сек.</t>
   </si>
   <si>
     <t>1740</t>
@@ -15428,7 +15428,7 @@
     <t>Reventon</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 38 сек.</t>
+    <t>1 ч. 01 мин. 38 сек.</t>
   </si>
   <si>
     <t>1741</t>
@@ -15437,7 +15437,7 @@
     <t>stc</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 33 сек.</t>
+    <t>1 ч. 01 мин. 33 сек.</t>
   </si>
   <si>
     <t>1742</t>
@@ -15446,7 +15446,7 @@
     <t>Noob228</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 32 сек.</t>
+    <t>1 ч. 01 мин. 32 сек.</t>
   </si>
   <si>
     <t>1743</t>
